--- a/app/data/base_export.xlsx
+++ b/app/data/base_export.xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhB1mJcL+w2UZ5mIBL9t9LCahdE0Q=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="484">
   <si>
     <t>Fecha de la visita</t>
   </si>
@@ -592,6 +597,9 @@
     <t>Examen General de Orina (EGO)</t>
   </si>
   <si>
+    <t>Extendido Periférico</t>
+  </si>
+  <si>
     <t>Prueba Bioquimica Clinica I</t>
   </si>
   <si>
@@ -622,51 +630,45 @@
     <t>Otro</t>
   </si>
   <si>
-    <t>BHC &amp; C.INMADURAS</t>
+    <t>BHC &amp; Plaquetas - Globulos Blancos</t>
+  </si>
+  <si>
+    <t>BHC &amp; Plaquetas - Globulos Rojos</t>
+  </si>
+  <si>
+    <t>BHC &amp; Plaquetas - Hemoglobina</t>
+  </si>
+  <si>
+    <t>BHC &amp; Plaquetas - Hematocrito</t>
+  </si>
+  <si>
+    <t>BHC &amp; Plaquetas - Plaquetas</t>
+  </si>
+  <si>
+    <t>BHC &amp; VCM</t>
+  </si>
+  <si>
+    <t>BHC &amp; HCM</t>
   </si>
   <si>
     <t>BHC &amp; CHCM</t>
   </si>
   <si>
-    <t>BHC &amp; HCM</t>
+    <t>BHC &amp; Plaquetas - Segmentados</t>
+  </si>
+  <si>
+    <t>BHC &amp; Plaquetas - Eosinofilos</t>
   </si>
   <si>
     <t>BHC &amp; Plaquetas - Basofilos</t>
   </si>
   <si>
-    <t>BHC &amp; Plaquetas - Eosinofilos</t>
-  </si>
-  <si>
-    <t>BHC &amp; Plaquetas - Hematocrito</t>
-  </si>
-  <si>
-    <t>BHC &amp; Plaquetas - Hemoglobina</t>
+    <t>BHC &amp; Plaquetas - Monocitos</t>
   </si>
   <si>
     <t>BHC &amp; Plaquetas - Linfocitos</t>
   </si>
   <si>
-    <t>BHC &amp; Plaquetas - Monocitos</t>
-  </si>
-  <si>
-    <t>BHC &amp; Plaquetas - Plaquetas</t>
-  </si>
-  <si>
-    <t>BHC &amp; Plaquetas - Segmentados</t>
-  </si>
-  <si>
-    <t>BHC &amp; SERIE BLANCA</t>
-  </si>
-  <si>
-    <t>BHC &amp; SERIE PLAQUETARIA</t>
-  </si>
-  <si>
-    <t>BHC &amp; SERIE ROJA</t>
-  </si>
-  <si>
-    <t>BHC &amp; VCM</t>
-  </si>
-  <si>
     <t>Bioquimica Clinica I - Acido Urico</t>
   </si>
   <si>
@@ -679,67 +681,67 @@
     <t>Bioquimica Clinica II - Colesterol Total</t>
   </si>
   <si>
+    <t>Bioquimica Clinica II - Trigliceridos</t>
+  </si>
+  <si>
     <t>Bioquimica Clinica II - HDL Colesterol</t>
   </si>
   <si>
+    <t>Bioquimica Clinica II - VLDL Colesterol</t>
+  </si>
+  <si>
     <t>Bioquimica Clinica II - LDL Colesterol</t>
   </si>
   <si>
-    <t>Bioquimica Clinica II - Trigliceridos</t>
-  </si>
-  <si>
-    <t>Bioquimica Clinica II - VLDL Colesterol</t>
+    <t>EGH &amp; Macroscopico - Color</t>
+  </si>
+  <si>
+    <t>EGH &amp; Macroscopico - Consistencia</t>
+  </si>
+  <si>
+    <t>EGH &amp; Macroscopico - Observaciones</t>
+  </si>
+  <si>
+    <t>EGH &amp; C.Fecal - Quimico -  pH</t>
+  </si>
+  <si>
+    <t>EGH &amp; C.Fecal - Quimico - Az Reductores</t>
+  </si>
+  <si>
+    <t>EGH &amp; C.Fecal - Quimico - Sangre oculta</t>
+  </si>
+  <si>
+    <t>EGH &amp; C.Fecal - Microscopico - Quistes</t>
+  </si>
+  <si>
+    <t>EGH &amp; C.Fecal - Microscopico - Trofozoitos</t>
+  </si>
+  <si>
+    <t>EGH &amp; C.Fecal - Microscopico - Otros</t>
+  </si>
+  <si>
+    <t>EGH &amp; C.Fecal - Microscopico - Leucocitos</t>
+  </si>
+  <si>
+    <t>EGH &amp; C.Fecal - Microscopico - Eritrocitos</t>
+  </si>
+  <si>
+    <t>EGH &amp; C.Fecal - Microscopico - Bacterias</t>
+  </si>
+  <si>
+    <t>EGH &amp; C.Fecal - Diferencial - Polimorfonucleares</t>
+  </si>
+  <si>
+    <t>EGH &amp; C.Fecal - Diferencial - Mononucleares</t>
+  </si>
+  <si>
+    <t>Embarazo - Hemogravindex</t>
+  </si>
+  <si>
+    <t>Embarazo - Gravindex</t>
   </si>
   <si>
     <t>Antigenos Helicobacter Pylori en Heces</t>
-  </si>
-  <si>
-    <t>Citologia Fecal &amp; Diferencial - Mononucleares</t>
-  </si>
-  <si>
-    <t>Citologia Fecal &amp; Diferencial - Polimorfonucleares</t>
-  </si>
-  <si>
-    <t>Citologia Fecal &amp; Microscopico - Bacterias</t>
-  </si>
-  <si>
-    <t>Citologia Fecal &amp; Microscopico - Eritrocitos</t>
-  </si>
-  <si>
-    <t>Citologia Fecal &amp; Microscopico - Leucocitos</t>
-  </si>
-  <si>
-    <t>Citologia Fecal &amp; Microscopico - Otros</t>
-  </si>
-  <si>
-    <t>Citologia Fecal &amp; Microscopico - Quistes</t>
-  </si>
-  <si>
-    <t>Citologia Fecal &amp; Microscopico - Trofozoitos</t>
-  </si>
-  <si>
-    <t>Citologia Fecal &amp; Quimico -  pH</t>
-  </si>
-  <si>
-    <t>Citologia Fecal &amp; Quimico - Az Reductores</t>
-  </si>
-  <si>
-    <t>Citologia Fecal &amp; Quimico - Sangre oculta</t>
-  </si>
-  <si>
-    <t>EGH &amp; Macroscopico - Color</t>
-  </si>
-  <si>
-    <t>EGH &amp; Macroscopico - Observaciones</t>
-  </si>
-  <si>
-    <t>EGH &amp; Macroscopico- Consistencia</t>
-  </si>
-  <si>
-    <t>Embarazo - Hemogravindex</t>
-  </si>
-  <si>
-    <t>Embarazo - Gravindex</t>
   </si>
   <si>
     <t>Microbiologia - H.Pilory en sangre</t>
@@ -1475,7 +1477,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -1514,6 +1516,11 @@
     <font>
       <b/>
       <sz val="12.0"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
     </font>
@@ -1570,7 +1577,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1595,9 +1602,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1613,34 +1617,40 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1888,14 +1898,14 @@
     <col customWidth="1" min="53" max="54" width="10.56"/>
     <col customWidth="1" min="55" max="55" width="12.11"/>
     <col customWidth="1" min="56" max="56" width="13.0"/>
-    <col customWidth="1" min="57" max="383" width="10.56"/>
-    <col customWidth="1" min="384" max="384" width="17.89"/>
-    <col customWidth="1" min="385" max="488" width="10.56"/>
-    <col customWidth="1" min="489" max="489" width="12.11"/>
-    <col customWidth="1" min="490" max="491" width="10.56"/>
-    <col customWidth="1" min="492" max="492" width="12.44"/>
-    <col customWidth="1" min="493" max="493" width="11.56"/>
-    <col customWidth="1" min="494" max="498" width="10.56"/>
+    <col customWidth="1" min="57" max="382" width="10.56"/>
+    <col customWidth="1" min="383" max="383" width="17.89"/>
+    <col customWidth="1" min="384" max="487" width="10.56"/>
+    <col customWidth="1" min="488" max="488" width="12.11"/>
+    <col customWidth="1" min="489" max="490" width="10.56"/>
+    <col customWidth="1" min="491" max="491" width="12.44"/>
+    <col customWidth="1" min="492" max="492" width="11.56"/>
+    <col customWidth="1" min="493" max="497" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2167,10 +2177,10 @@
       <c r="GN1" s="7"/>
       <c r="GO1" s="7"/>
       <c r="GP1" s="7"/>
-      <c r="GQ1" s="6" t="s">
+      <c r="GQ1" s="7"/>
+      <c r="GR1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="GR1" s="6"/>
       <c r="GS1" s="6"/>
       <c r="GT1" s="6"/>
       <c r="GU1" s="6"/>
@@ -2220,10 +2230,10 @@
       <c r="IM1" s="6"/>
       <c r="IN1" s="6"/>
       <c r="IO1" s="6"/>
-      <c r="IP1" s="6"/>
-      <c r="IQ1" s="6" t="s">
+      <c r="IP1" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="IQ1" s="6"/>
       <c r="IR1" s="6"/>
       <c r="IS1" s="6"/>
       <c r="IT1" s="6"/>
@@ -2246,10 +2256,10 @@
       <c r="JK1" s="6"/>
       <c r="JL1" s="6"/>
       <c r="JM1" s="6"/>
-      <c r="JN1" s="6"/>
-      <c r="JO1" s="7" t="s">
+      <c r="JN1" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="JO1" s="7"/>
       <c r="JP1" s="7"/>
       <c r="JQ1" s="7"/>
       <c r="JR1" s="7"/>
@@ -2287,10 +2297,10 @@
       <c r="KX1" s="7"/>
       <c r="KY1" s="7"/>
       <c r="KZ1" s="7"/>
-      <c r="LA1" s="7"/>
-      <c r="LB1" s="7" t="s">
+      <c r="LA1" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="LB1" s="7"/>
       <c r="LC1" s="7"/>
       <c r="LD1" s="7"/>
       <c r="LE1" s="7"/>
@@ -2332,10 +2342,10 @@
       <c r="MO1" s="7"/>
       <c r="MP1" s="7"/>
       <c r="MQ1" s="7"/>
-      <c r="MR1" s="7"/>
-      <c r="MS1" s="7" t="s">
+      <c r="MR1" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="MS1" s="7"/>
       <c r="MT1" s="7"/>
       <c r="MU1" s="7"/>
       <c r="MV1" s="7"/>
@@ -2358,15 +2368,15 @@
       <c r="NM1" s="7"/>
       <c r="NN1" s="7"/>
       <c r="NO1" s="7"/>
-      <c r="NP1" s="7"/>
-      <c r="NQ1" s="7" t="s">
+      <c r="NP1" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="NQ1" s="7"/>
       <c r="NR1" s="7"/>
-      <c r="NS1" s="7"/>
-      <c r="NT1" s="7" t="s">
+      <c r="NS1" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="NT1" s="7"/>
       <c r="NU1" s="7"/>
       <c r="NV1" s="7"/>
       <c r="NW1" s="7"/>
@@ -2390,10 +2400,10 @@
       <c r="OO1" s="7"/>
       <c r="OP1" s="7"/>
       <c r="OQ1" s="7"/>
-      <c r="OR1" s="7"/>
-      <c r="OS1" s="7" t="s">
+      <c r="OR1" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="OS1" s="7"/>
       <c r="OT1" s="7"/>
       <c r="OU1" s="7"/>
       <c r="OV1" s="7"/>
@@ -2410,10 +2420,10 @@
       <c r="PG1" s="7"/>
       <c r="PH1" s="7"/>
       <c r="PI1" s="7"/>
-      <c r="PJ1" s="7"/>
-      <c r="PK1" s="7" t="s">
+      <c r="PJ1" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="PK1" s="7"/>
       <c r="PL1" s="7"/>
       <c r="PM1" s="7"/>
       <c r="PN1" s="7"/>
@@ -2440,10 +2450,10 @@
       <c r="QI1" s="7"/>
       <c r="QJ1" s="7"/>
       <c r="QK1" s="7"/>
-      <c r="QL1" s="7"/>
-      <c r="QM1" s="7" t="s">
+      <c r="QL1" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="QM1" s="7"/>
       <c r="QN1" s="7"/>
       <c r="QO1" s="7"/>
       <c r="QP1" s="7"/>
@@ -2456,10 +2466,10 @@
       <c r="QW1" s="7"/>
       <c r="QX1" s="7"/>
       <c r="QY1" s="7"/>
-      <c r="QZ1" s="7"/>
-      <c r="RA1" s="7" t="s">
+      <c r="QZ1" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="RA1" s="7"/>
       <c r="RB1" s="7"/>
       <c r="RC1" s="7"/>
       <c r="RD1" s="7"/>
@@ -2476,1466 +2486,1462 @@
       <c r="RO1" s="7"/>
       <c r="RP1" s="7"/>
       <c r="RQ1" s="7"/>
-      <c r="RR1" s="7"/>
-      <c r="RS1" s="7" t="s">
+      <c r="RR1" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="RS1" s="7"/>
       <c r="RT1" s="7"/>
       <c r="RU1" s="7"/>
       <c r="RV1" s="7"/>
       <c r="RW1" s="7"/>
       <c r="RX1" s="7"/>
       <c r="RY1" s="7"/>
-      <c r="RZ1" s="7"/>
-      <c r="SA1" s="8" t="s">
+      <c r="RZ1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="SB1" s="8"/>
-      <c r="SC1" s="8"/>
-      <c r="SD1" s="8"/>
+      <c r="SA1" s="7"/>
+      <c r="SB1" s="7"/>
+      <c r="SC1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="11" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AC2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AE2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AG2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AH2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AI2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="12" t="s">
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AM2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AN2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AO2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AP2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AQ2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AR2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AS2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AT2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AU2" s="13" t="s">
+      <c r="AU2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AV2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AW2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AX2" s="12" t="s">
+      <c r="AX2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AY2" s="12" t="s">
+      <c r="AY2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AZ2" s="12" t="s">
+      <c r="AZ2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="BA2" s="12" t="s">
+      <c r="BA2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="BB2" s="12" t="s">
+      <c r="BB2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="BC2" s="12" t="s">
+      <c r="BC2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BD2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BE2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="BF2" s="12" t="s">
+      <c r="BF2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BG2" s="12" t="s">
+      <c r="BG2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BH2" s="12" t="s">
+      <c r="BH2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="BI2" s="12" t="s">
+      <c r="BI2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="BJ2" s="12" t="s">
+      <c r="BJ2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="BK2" s="12" t="s">
+      <c r="BK2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="BL2" s="12" t="s">
+      <c r="BL2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="BM2" s="12" t="s">
+      <c r="BM2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="BN2" s="12" t="s">
+      <c r="BN2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="BO2" s="12" t="s">
+      <c r="BO2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="BP2" s="12" t="s">
+      <c r="BP2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="BQ2" s="12" t="s">
+      <c r="BQ2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="BR2" s="12" t="s">
+      <c r="BR2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="BS2" s="12" t="s">
+      <c r="BS2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="BT2" s="12" t="s">
+      <c r="BT2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="BU2" s="12" t="s">
+      <c r="BU2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="BV2" s="12" t="s">
+      <c r="BV2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="BW2" s="12" t="s">
+      <c r="BW2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="BX2" s="12" t="s">
+      <c r="BX2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="BY2" s="12" t="s">
+      <c r="BY2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="BZ2" s="12" t="s">
+      <c r="BZ2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="CA2" s="12" t="s">
+      <c r="CA2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="CB2" s="12" t="s">
+      <c r="CB2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="CC2" s="12" t="s">
+      <c r="CC2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="CD2" s="12" t="s">
+      <c r="CD2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="CE2" s="12" t="s">
+      <c r="CE2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="CF2" s="12" t="s">
+      <c r="CF2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="CG2" s="12" t="s">
+      <c r="CG2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="CH2" s="12" t="s">
+      <c r="CH2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="CI2" s="12" t="s">
+      <c r="CI2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="CJ2" s="12" t="s">
+      <c r="CJ2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="CK2" s="12" t="s">
+      <c r="CK2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="CL2" s="12" t="s">
+      <c r="CL2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="CM2" s="12" t="s">
+      <c r="CM2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="CN2" s="12" t="s">
+      <c r="CN2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="CO2" s="12" t="s">
+      <c r="CO2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="CP2" s="12" t="s">
+      <c r="CP2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="CQ2" s="12" t="s">
+      <c r="CQ2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="CR2" s="12" t="s">
+      <c r="CR2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="CS2" s="12" t="s">
+      <c r="CS2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="CT2" s="12" t="s">
+      <c r="CT2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="CU2" s="12" t="s">
+      <c r="CU2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="CV2" s="12" t="s">
+      <c r="CV2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="CW2" s="12" t="s">
+      <c r="CW2" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="CX2" s="12" t="s">
+      <c r="CX2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="CY2" s="12" t="s">
+      <c r="CY2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="CZ2" s="12" t="s">
+      <c r="CZ2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="DA2" s="12" t="s">
+      <c r="DA2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="DB2" s="12" t="s">
+      <c r="DB2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="DC2" s="12" t="s">
+      <c r="DC2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="DD2" s="12" t="s">
+      <c r="DD2" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="DE2" s="12" t="s">
+      <c r="DE2" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="DF2" s="12" t="s">
+      <c r="DF2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="DG2" s="12" t="s">
+      <c r="DG2" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="DH2" s="12" t="s">
+      <c r="DH2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="DI2" s="12" t="s">
+      <c r="DI2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="DJ2" s="12" t="s">
+      <c r="DJ2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="DK2" s="12" t="s">
+      <c r="DK2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="DL2" s="12" t="s">
+      <c r="DL2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="DM2" s="12" t="s">
+      <c r="DM2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="DN2" s="12" t="s">
+      <c r="DN2" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="DO2" s="12" t="s">
+      <c r="DO2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="DP2" s="12" t="s">
+      <c r="DP2" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="DQ2" s="12" t="s">
+      <c r="DQ2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="DR2" s="12" t="s">
+      <c r="DR2" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="DS2" s="12" t="s">
+      <c r="DS2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="DT2" s="12" t="s">
+      <c r="DT2" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="DU2" s="12" t="s">
+      <c r="DU2" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="DV2" s="12" t="s">
+      <c r="DV2" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="DW2" s="12" t="s">
+      <c r="DW2" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="DX2" s="12" t="s">
+      <c r="DX2" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="DY2" s="12" t="s">
+      <c r="DY2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="DZ2" s="12" t="s">
+      <c r="DZ2" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="EA2" s="12" t="s">
+      <c r="EA2" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="EB2" s="12" t="s">
+      <c r="EB2" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="EC2" s="12" t="s">
+      <c r="EC2" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="ED2" s="12" t="s">
+      <c r="ED2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="EE2" s="12" t="s">
+      <c r="EE2" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="EF2" s="12" t="s">
+      <c r="EF2" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="EG2" s="12" t="s">
+      <c r="EG2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="EH2" s="12" t="s">
+      <c r="EH2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="EI2" s="12" t="s">
+      <c r="EI2" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="EJ2" s="12" t="s">
+      <c r="EJ2" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="EK2" s="12" t="s">
+      <c r="EK2" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="EL2" s="12" t="s">
+      <c r="EL2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="EM2" s="12" t="s">
+      <c r="EM2" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="EN2" s="12" t="s">
+      <c r="EN2" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="EO2" s="12" t="s">
+      <c r="EO2" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="EP2" s="12" t="s">
+      <c r="EP2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="EQ2" s="12" t="s">
+      <c r="EQ2" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="ER2" s="12" t="s">
+      <c r="ER2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="ES2" s="12" t="s">
+      <c r="ES2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="ET2" s="12" t="s">
+      <c r="ET2" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="EU2" s="12" t="s">
+      <c r="EU2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="EV2" s="12" t="s">
+      <c r="EV2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="EW2" s="12" t="s">
+      <c r="EW2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="EX2" s="12" t="s">
+      <c r="EX2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="EY2" s="12" t="s">
+      <c r="EY2" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="EZ2" s="12" t="s">
+      <c r="EZ2" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="FA2" s="12" t="s">
+      <c r="FA2" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="FB2" s="12" t="s">
+      <c r="FB2" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="FC2" s="12" t="s">
+      <c r="FC2" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="FD2" s="12" t="s">
+      <c r="FD2" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="FE2" s="12" t="s">
+      <c r="FE2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="FF2" s="12" t="s">
+      <c r="FF2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="FG2" s="12" t="s">
+      <c r="FG2" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="FH2" s="12" t="s">
+      <c r="FH2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="FI2" s="12" t="s">
+      <c r="FI2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="FJ2" s="12" t="s">
+      <c r="FJ2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="FK2" s="12" t="s">
+      <c r="FK2" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="FL2" s="12" t="s">
+      <c r="FL2" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="FM2" s="12" t="s">
+      <c r="FM2" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="FN2" s="12" t="s">
+      <c r="FN2" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="FO2" s="12" t="s">
+      <c r="FO2" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="FP2" s="12" t="s">
+      <c r="FP2" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="FQ2" s="12" t="s">
+      <c r="FQ2" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="FR2" s="13" t="s">
+      <c r="FR2" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="FS2" s="13" t="s">
+      <c r="FS2" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="FT2" s="12" t="s">
+      <c r="FT2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="FU2" s="12" t="s">
+      <c r="FU2" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="FV2" s="12" t="s">
+      <c r="FV2" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="FW2" s="12" t="s">
+      <c r="FW2" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="FX2" s="12" t="s">
+      <c r="FX2" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="FY2" s="12" t="s">
+      <c r="FY2" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="FZ2" s="12" t="s">
+      <c r="FZ2" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="GA2" s="12" t="s">
+      <c r="GA2" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="GB2" s="12" t="s">
+      <c r="GB2" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="GC2" s="12" t="s">
+      <c r="GC2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="GD2" s="12" t="s">
+      <c r="GD2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="GE2" s="12" t="s">
+      <c r="GE2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="GF2" s="12" t="s">
+      <c r="GF2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="GG2" s="12" t="s">
+      <c r="GG2" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="GH2" s="12" t="s">
+      <c r="GH2" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="GI2" s="12" t="s">
+      <c r="GI2" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="GJ2" s="12" t="s">
+      <c r="GJ2" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="GK2" s="12" t="s">
+      <c r="GK2" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="GL2" s="12" t="s">
+      <c r="GL2" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="GM2" s="12" t="s">
+      <c r="GM2" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="GN2" s="12" t="s">
+      <c r="GN2" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="GO2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="GO2" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="GP2" s="12" t="s">
+      <c r="GP2" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="GQ2" s="14" t="s">
+      <c r="GQ2" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="GR2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="GR2" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="GS2" s="14" t="s">
+      <c r="GS2" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="GT2" s="14" t="s">
+      <c r="GT2" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="GU2" s="15" t="s">
+      <c r="GU2" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="GV2" s="15" t="s">
+      <c r="GV2" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="GW2" s="15" t="s">
+      <c r="GW2" s="16" t="s">
         <v>208</v>
       </c>
       <c r="GX2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="GY2" s="15" t="s">
+      <c r="GY2" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="GZ2" s="15" t="s">
+      <c r="GZ2" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="HA2" s="15" t="s">
+      <c r="HA2" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="HB2" s="15" t="s">
+      <c r="HB2" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="HC2" s="14" t="s">
+      <c r="HC2" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="HD2" s="14" t="s">
+      <c r="HD2" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="HE2" s="14" t="s">
+      <c r="HE2" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="HF2" s="14" t="s">
+      <c r="HF2" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="HG2" s="12" t="s">
+      <c r="HG2" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="HH2" s="12" t="s">
+      <c r="HH2" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="HI2" s="12" t="s">
+      <c r="HI2" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="HJ2" s="12" t="s">
+      <c r="HJ2" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="HK2" s="12" t="s">
+      <c r="HK2" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="HL2" s="12" t="s">
+      <c r="HL2" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="HM2" s="12" t="s">
+      <c r="HM2" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="HN2" s="12" t="s">
+      <c r="HN2" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="HO2" s="12" t="s">
+      <c r="HO2" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="HP2" s="12" t="s">
+      <c r="HP2" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="HQ2" s="12" t="s">
+      <c r="HQ2" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="HR2" s="12" t="s">
+      <c r="HR2" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="HS2" s="12" t="s">
+      <c r="HS2" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="HT2" s="12" t="s">
+      <c r="HT2" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="HU2" s="12" t="s">
+      <c r="HU2" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="HV2" s="12" t="s">
+      <c r="HV2" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="HW2" s="12" t="s">
+      <c r="HW2" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="HX2" s="12" t="s">
+      <c r="HX2" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="HY2" s="12" t="s">
+      <c r="HY2" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="HZ2" s="12" t="s">
+      <c r="HZ2" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="IA2" s="12" t="s">
+      <c r="IA2" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="IB2" s="12" t="s">
+      <c r="IB2" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="IC2" s="12" t="s">
+      <c r="IC2" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="ID2" s="12" t="s">
+      <c r="ID2" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="IE2" s="12" t="s">
+      <c r="IE2" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="IF2" s="12" t="s">
+      <c r="IF2" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="IG2" s="12" t="s">
+      <c r="IG2" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="IH2" s="12" t="s">
+      <c r="IH2" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="II2" s="12" t="s">
+      <c r="II2" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="IJ2" s="12" t="s">
+      <c r="IJ2" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="IK2" s="12" t="s">
+      <c r="IK2" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="IL2" s="12" t="s">
+      <c r="IL2" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="IM2" s="12" t="s">
+      <c r="IM2" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="IN2" s="12" t="s">
+      <c r="IN2" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="IO2" s="12" t="s">
+      <c r="IO2" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="IP2" s="15" t="s">
+      <c r="IP2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="IQ2" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="IQ2" s="12" t="s">
+      <c r="IR2" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="IS2" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="IT2" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="IU2" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="IV2" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="IW2" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="IX2" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="IY2" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="IZ2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="JA2" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="JB2" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="JC2" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="JD2" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="JE2" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="JF2" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="JG2" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="JH2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="JI2" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="JJ2" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="JK2" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="JL2" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="JM2" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="JN2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="IR2" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="IS2" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="IT2" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="IU2" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="IV2" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="IW2" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="IX2" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="IY2" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="IZ2" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="JA2" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="JB2" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="JC2" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="JD2" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="JE2" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="JF2" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="JG2" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="JH2" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="JI2" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="JJ2" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="JK2" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="JL2" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="JM2" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="JN2" s="12" t="s">
+      <c r="JO2" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="JO2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="JP2" s="12" t="s">
+      <c r="JP2" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="JQ2" s="12" t="s">
+      <c r="JQ2" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="JR2" s="12" t="s">
+      <c r="JR2" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="JS2" s="15" t="s">
+      <c r="JS2" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="JT2" s="15" t="s">
+      <c r="JT2" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="JU2" s="15" t="s">
+      <c r="JU2" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="JV2" s="15" t="s">
+      <c r="JV2" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="JW2" s="15" t="s">
+      <c r="JW2" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="JX2" s="12" t="s">
+      <c r="JX2" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="JY2" s="12" t="s">
+      <c r="JY2" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="JZ2" s="12" t="s">
+      <c r="JZ2" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="KA2" s="12" t="s">
+      <c r="KA2" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="KB2" s="12" t="s">
+      <c r="KB2" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="KC2" s="12" t="s">
+      <c r="KC2" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="KD2" s="12" t="s">
+      <c r="KD2" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="KE2" s="12" t="s">
+      <c r="KE2" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="KF2" s="12" t="s">
+      <c r="KF2" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="KG2" s="12" t="s">
+      <c r="KG2" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="KH2" s="12" t="s">
+      <c r="KH2" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="KI2" s="12" t="s">
+      <c r="KI2" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="KJ2" s="12" t="s">
+      <c r="KJ2" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="KK2" s="15" t="s">
+      <c r="KK2" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="KL2" s="15" t="s">
+      <c r="KL2" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="KM2" s="12" t="s">
+      <c r="KM2" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="KN2" s="15" t="s">
+      <c r="KN2" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="KO2" s="15" t="s">
+      <c r="KO2" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="KP2" s="15" t="s">
+      <c r="KP2" s="11" t="s">
         <v>303</v>
       </c>
       <c r="KQ2" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="KR2" s="13" t="s">
+      <c r="KR2" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="KS2" s="12" t="s">
+      <c r="KS2" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="KT2" s="12" t="s">
+      <c r="KT2" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="KU2" s="12" t="s">
+      <c r="KU2" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="KV2" s="12" t="s">
+      <c r="KV2" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="KW2" s="12" t="s">
+      <c r="KW2" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="KX2" s="12" t="s">
+      <c r="KX2" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="KY2" s="12" t="s">
+      <c r="KY2" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="KZ2" s="12" t="s">
+      <c r="KZ2" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="LA2" s="12" t="s">
+      <c r="LA2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="LB2" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="LB2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="LC2" s="12" t="s">
+      <c r="LC2" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="LD2" s="12" t="s">
+      <c r="LD2" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="LE2" s="12" t="s">
+      <c r="LE2" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="LF2" s="12" t="s">
+      <c r="LF2" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="LG2" s="12" t="s">
+      <c r="LG2" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="LH2" s="12" t="s">
+      <c r="LH2" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="LI2" s="12" t="s">
+      <c r="LI2" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="LJ2" s="12" t="s">
+      <c r="LJ2" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="LK2" s="12" t="s">
+      <c r="LK2" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="LL2" s="12" t="s">
+      <c r="LL2" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="LM2" s="12" t="s">
+      <c r="LM2" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="LN2" s="12" t="s">
+      <c r="LN2" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="LO2" s="12" t="s">
+      <c r="LO2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="LP2" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="LP2" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="LQ2" s="12" t="s">
+      <c r="LQ2" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="LR2" s="12" t="s">
+      <c r="LR2" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="LS2" s="12" t="s">
+      <c r="LS2" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="LT2" s="12" t="s">
+      <c r="LT2" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="LU2" s="12" t="s">
+      <c r="LU2" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="LV2" s="12" t="s">
+      <c r="LV2" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="LW2" s="12" t="s">
+      <c r="LW2" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="LX2" s="12" t="s">
+      <c r="LX2" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="LY2" s="12" t="s">
+      <c r="LY2" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="LZ2" s="12" t="s">
+      <c r="LZ2" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="MA2" s="12" t="s">
+      <c r="MA2" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="MB2" s="12" t="s">
+      <c r="MB2" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="MC2" s="12" t="s">
+      <c r="MC2" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="MD2" s="12" t="s">
+      <c r="MD2" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="ME2" s="12" t="s">
+      <c r="ME2" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="MF2" s="12" t="s">
+      <c r="MF2" s="11" t="s">
         <v>343</v>
       </c>
       <c r="MG2" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="MH2" s="13" t="s">
+      <c r="MH2" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="MI2" s="12" t="s">
+      <c r="MI2" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="MJ2" s="12" t="s">
+      <c r="MJ2" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="MK2" s="12" t="s">
+      <c r="MK2" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="ML2" s="12" t="s">
+      <c r="ML2" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="MM2" s="12" t="s">
+      <c r="MM2" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="MN2" s="12" t="s">
+      <c r="MN2" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="MO2" s="12" t="s">
+      <c r="MO2" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="MP2" s="12" t="s">
+      <c r="MP2" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="MQ2" s="12" t="s">
+      <c r="MQ2" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="MR2" s="12" t="s">
+      <c r="MR2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="MS2" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="MS2" s="12" t="s">
+      <c r="MT2" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU2" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV2" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW2" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX2" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY2" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ2" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA2" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB2" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC2" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND2" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE2" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF2" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG2" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH2" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI2" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ2" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK2" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL2" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM2" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN2" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="NP2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="MT2" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="MU2" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="MV2" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="MW2" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="MX2" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="MY2" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="MZ2" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="NA2" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="NB2" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="NC2" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="ND2" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="NE2" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="NF2" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="NG2" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="NH2" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="NI2" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="NJ2" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="NK2" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="NL2" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="NM2" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="NN2" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="NO2" s="12" t="s">
+      <c r="NQ2" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="NP2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="NQ2" s="12" t="s">
+      <c r="NR2" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="NS2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="NR2" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="NS2" s="12" t="s">
+      <c r="NT2" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="NT2" s="12" t="s">
+      <c r="NU2" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="NV2" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="NW2" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="NX2" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="NY2" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="NZ2" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OA2" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OB2" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="OC2" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="OD2" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="OE2" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="OF2" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="OG2" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="OH2" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="OI2" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="OJ2" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="OK2" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="OL2" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="OM2" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="ON2" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="OO2" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="OP2" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="OQ2" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="OR2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="NU2" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="NV2" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="NW2" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="NX2" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="NY2" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="NZ2" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="OA2" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="OB2" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="OC2" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="OD2" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="OE2" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="OF2" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="OG2" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="OH2" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="OI2" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="OJ2" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="OK2" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="OL2" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="OM2" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="ON2" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="OO2" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="OP2" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="OQ2" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="OR2" s="12" t="s">
+      <c r="OS2" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="OS2" s="12" t="s">
+      <c r="OT2" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="OU2" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="OV2" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="OW2" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="OX2" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="OY2" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="OZ2" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="PA2" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="PB2" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="PC2" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="PD2" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="PE2" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="PF2" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="PG2" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="PH2" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="PI2" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="PJ2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="OT2" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="OU2" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="OV2" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="OW2" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="OX2" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="OY2" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="OZ2" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="PA2" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="PB2" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="PC2" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="PD2" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="PE2" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="PF2" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="PG2" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="PH2" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="PI2" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="PJ2" s="12" t="s">
+      <c r="PK2" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="PK2" s="12" t="s">
+      <c r="PL2" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="PM2" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="PN2" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="PO2" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="PP2" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="PQ2" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="PR2" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="PS2" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="PT2" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="PU2" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="PV2" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="PW2" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="PX2" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="PY2" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="PZ2" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="QA2" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="QB2" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="QC2" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="QD2" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="QE2" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="QF2" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="QG2" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="QH2" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="QI2" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="QJ2" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="QK2" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="QL2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="PL2" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="PM2" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="PN2" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="PO2" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="PP2" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="PQ2" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="PR2" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="PS2" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="PT2" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="PU2" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="PV2" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="PW2" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="PX2" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="PY2" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="PZ2" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="QA2" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="QB2" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="QC2" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="QD2" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="QE2" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="QF2" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="QG2" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="QH2" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="QI2" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="QJ2" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="QK2" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="QL2" s="12" t="s">
+      <c r="QM2" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="QM2" s="12" t="s">
+      <c r="QN2" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="QO2" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="QP2" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="QQ2" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="QR2" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="QS2" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="QT2" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="QU2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="QV2" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="QW2" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="QX2" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="QY2" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="QZ2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="QN2" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="QO2" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="QP2" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="QQ2" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="QR2" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="QS2" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="QT2" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="QU2" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="QV2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="QW2" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="QX2" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="QY2" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="QZ2" s="12" t="s">
+      <c r="RA2" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="RA2" s="12" t="s">
+      <c r="RB2" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="RC2" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="RD2" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="RE2" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="RF2" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="RG2" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="RH2" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="RI2" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="RJ2" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="RK2" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="RL2" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="RM2" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="RN2" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="RO2" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="RP2" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="RQ2" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="RR2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="RB2" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="RC2" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="RD2" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="RE2" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="RF2" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="RG2" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="RH2" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="RI2" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="RJ2" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="RK2" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="RL2" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="RM2" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="RN2" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="RO2" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="RP2" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="RQ2" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="RR2" s="12" t="s">
+      <c r="RS2" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="RS2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="RT2" s="12" t="s">
+      <c r="RT2" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="RU2" s="12" t="s">
+      <c r="RU2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="RV2" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="RV2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="RW2" s="12" t="s">
+      <c r="RW2" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="RX2" s="12" t="s">
+      <c r="RX2" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="RY2" s="12" t="s">
+      <c r="RY2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="RZ2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="SA2" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="RZ2" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="SA2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="SB2" s="16" t="s">
+      <c r="SB2" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="SC2" s="16" t="s">
+      <c r="SC2" s="11" t="s">
         <v>483</v>
-      </c>
-      <c r="SD2" s="16" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -4125,7 +4131,7 @@
       <c r="GC3" s="18"/>
       <c r="GD3" s="18"/>
       <c r="GE3" s="18"/>
-      <c r="GF3" s="18"/>
+      <c r="GF3" s="19"/>
       <c r="GG3" s="18"/>
       <c r="GH3" s="18"/>
       <c r="GI3" s="18"/>
@@ -4250,9 +4256,9 @@
       <c r="KX3" s="18"/>
       <c r="KY3" s="18"/>
       <c r="KZ3" s="18"/>
-      <c r="LA3" s="18"/>
-      <c r="LB3" s="19"/>
-      <c r="LC3" s="19"/>
+      <c r="LA3" s="20"/>
+      <c r="LB3" s="20"/>
+      <c r="LC3" s="18"/>
       <c r="LD3" s="18"/>
       <c r="LE3" s="18"/>
       <c r="LF3" s="18"/>
@@ -4320,9 +4326,9 @@
       <c r="NP3" s="18"/>
       <c r="NQ3" s="18"/>
       <c r="NR3" s="18"/>
-      <c r="NS3" s="18"/>
-      <c r="NT3" s="19"/>
-      <c r="NU3" s="19"/>
+      <c r="NS3" s="20"/>
+      <c r="NT3" s="20"/>
+      <c r="NU3" s="18"/>
       <c r="NV3" s="18"/>
       <c r="NW3" s="18"/>
       <c r="NX3" s="18"/>
@@ -4363,9 +4369,9 @@
       <c r="PG3" s="18"/>
       <c r="PH3" s="18"/>
       <c r="PI3" s="18"/>
-      <c r="PJ3" s="18"/>
-      <c r="PK3" s="19"/>
-      <c r="PL3" s="19"/>
+      <c r="PJ3" s="20"/>
+      <c r="PK3" s="20"/>
+      <c r="PL3" s="18"/>
       <c r="PM3" s="18"/>
       <c r="PN3" s="18"/>
       <c r="PO3" s="18"/>
@@ -4391,9 +4397,9 @@
       <c r="QI3" s="18"/>
       <c r="QJ3" s="18"/>
       <c r="QK3" s="18"/>
-      <c r="QL3" s="18"/>
-      <c r="QM3" s="19"/>
-      <c r="QN3" s="19"/>
+      <c r="QL3" s="20"/>
+      <c r="QM3" s="20"/>
+      <c r="QN3" s="18"/>
       <c r="QO3" s="18"/>
       <c r="QP3" s="18"/>
       <c r="QQ3" s="18"/>
@@ -4423,19 +4429,18 @@
       <c r="RO3" s="18"/>
       <c r="RP3" s="18"/>
       <c r="RQ3" s="18"/>
-      <c r="RR3" s="18"/>
-      <c r="RS3" s="19"/>
-      <c r="RT3" s="19"/>
-      <c r="RU3" s="19"/>
-      <c r="RV3" s="19"/>
-      <c r="RW3" s="19"/>
-      <c r="RX3" s="19"/>
-      <c r="RY3" s="19"/>
-      <c r="RZ3" s="19"/>
-      <c r="SA3" s="19"/>
-      <c r="SB3" s="19"/>
-      <c r="SC3" s="19"/>
-      <c r="SD3" s="19"/>
+      <c r="RR3" s="20"/>
+      <c r="RS3" s="20"/>
+      <c r="RT3" s="20"/>
+      <c r="RU3" s="20"/>
+      <c r="RV3" s="20"/>
+      <c r="RW3" s="20"/>
+      <c r="RX3" s="20"/>
+      <c r="RY3" s="20"/>
+      <c r="RZ3" s="20"/>
+      <c r="SA3" s="20"/>
+      <c r="SB3" s="20"/>
+      <c r="SC3" s="20"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="17"/>
@@ -4448,8 +4453,8 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
@@ -4462,8 +4467,8 @@
       <c r="W4" s="18"/>
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
       <c r="AB4" s="18"/>
       <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
@@ -4475,7 +4480,7 @@
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
       <c r="AL4" s="18"/>
-      <c r="AM4" s="19"/>
+      <c r="AM4" s="20"/>
       <c r="AN4" s="18"/>
       <c r="AO4" s="18"/>
       <c r="AP4" s="18"/>
@@ -4485,7 +4490,7 @@
       <c r="AT4" s="18"/>
       <c r="AU4" s="18"/>
       <c r="AV4" s="18"/>
-      <c r="AW4" s="19"/>
+      <c r="AW4" s="20"/>
       <c r="AX4" s="18"/>
       <c r="AY4" s="18"/>
       <c r="AZ4" s="18"/>
@@ -4512,8 +4517,8 @@
       <c r="BU4" s="18"/>
       <c r="BV4" s="18"/>
       <c r="BW4" s="18"/>
-      <c r="BX4" s="19"/>
-      <c r="BY4" s="19"/>
+      <c r="BX4" s="20"/>
+      <c r="BY4" s="20"/>
       <c r="BZ4" s="18"/>
       <c r="CA4" s="18"/>
       <c r="CB4" s="18"/>
@@ -4612,8 +4617,8 @@
       <c r="FQ4" s="18"/>
       <c r="FR4" s="18"/>
       <c r="FS4" s="18"/>
-      <c r="FT4" s="19"/>
-      <c r="FU4" s="19"/>
+      <c r="FT4" s="20"/>
+      <c r="FU4" s="20"/>
       <c r="FV4" s="18"/>
       <c r="FW4" s="18"/>
       <c r="FX4" s="18"/>
@@ -4621,8 +4626,8 @@
       <c r="FZ4" s="18"/>
       <c r="GA4" s="18"/>
       <c r="GB4" s="18"/>
-      <c r="GC4" s="19"/>
-      <c r="GD4" s="19"/>
+      <c r="GC4" s="20"/>
+      <c r="GD4" s="20"/>
       <c r="GE4" s="18"/>
       <c r="GF4" s="18"/>
       <c r="GG4" s="18"/>
@@ -4635,8 +4640,8 @@
       <c r="GN4" s="18"/>
       <c r="GO4" s="18"/>
       <c r="GP4" s="18"/>
-      <c r="GQ4" s="20"/>
-      <c r="GR4" s="20"/>
+      <c r="GQ4" s="18"/>
+      <c r="GR4" s="21"/>
       <c r="GS4" s="18"/>
       <c r="GT4" s="18"/>
       <c r="GU4" s="18"/>
@@ -4686,9 +4691,9 @@
       <c r="IM4" s="18"/>
       <c r="IN4" s="18"/>
       <c r="IO4" s="18"/>
-      <c r="IP4" s="18"/>
-      <c r="IQ4" s="19"/>
-      <c r="IR4" s="19"/>
+      <c r="IP4" s="20"/>
+      <c r="IQ4" s="20"/>
+      <c r="IR4" s="18"/>
       <c r="IS4" s="18"/>
       <c r="IT4" s="18"/>
       <c r="IU4" s="18"/>
@@ -4710,9 +4715,9 @@
       <c r="JK4" s="18"/>
       <c r="JL4" s="18"/>
       <c r="JM4" s="18"/>
-      <c r="JN4" s="18"/>
-      <c r="JO4" s="19"/>
-      <c r="JP4" s="19"/>
+      <c r="JN4" s="20"/>
+      <c r="JO4" s="20"/>
+      <c r="JP4" s="18"/>
       <c r="JQ4" s="18"/>
       <c r="JR4" s="18"/>
       <c r="JS4" s="18"/>
@@ -4749,9 +4754,9 @@
       <c r="KX4" s="18"/>
       <c r="KY4" s="18"/>
       <c r="KZ4" s="18"/>
-      <c r="LA4" s="18"/>
-      <c r="LB4" s="19"/>
-      <c r="LC4" s="19"/>
+      <c r="LA4" s="20"/>
+      <c r="LB4" s="20"/>
+      <c r="LC4" s="18"/>
       <c r="LD4" s="18"/>
       <c r="LE4" s="18"/>
       <c r="LF4" s="18"/>
@@ -4791,10 +4796,10 @@
       <c r="MN4" s="18"/>
       <c r="MO4" s="18"/>
       <c r="MP4" s="18"/>
-      <c r="MQ4" s="18"/>
-      <c r="MR4" s="19"/>
-      <c r="MS4" s="19"/>
-      <c r="MT4" s="19"/>
+      <c r="MQ4" s="20"/>
+      <c r="MR4" s="20"/>
+      <c r="MS4" s="20"/>
+      <c r="MT4" s="18"/>
       <c r="MU4" s="18"/>
       <c r="MV4" s="18"/>
       <c r="MW4" s="18"/>
@@ -4816,12 +4821,12 @@
       <c r="NM4" s="18"/>
       <c r="NN4" s="18"/>
       <c r="NO4" s="18"/>
-      <c r="NP4" s="18"/>
-      <c r="NQ4" s="19"/>
+      <c r="NP4" s="20"/>
+      <c r="NQ4" s="18"/>
       <c r="NR4" s="18"/>
-      <c r="NS4" s="18"/>
-      <c r="NT4" s="19"/>
-      <c r="NU4" s="19"/>
+      <c r="NS4" s="20"/>
+      <c r="NT4" s="20"/>
+      <c r="NU4" s="18"/>
       <c r="NV4" s="18"/>
       <c r="NW4" s="18"/>
       <c r="NX4" s="18"/>
@@ -4844,9 +4849,9 @@
       <c r="OO4" s="18"/>
       <c r="OP4" s="18"/>
       <c r="OQ4" s="18"/>
-      <c r="OR4" s="18"/>
-      <c r="OS4" s="19"/>
-      <c r="OT4" s="19"/>
+      <c r="OR4" s="20"/>
+      <c r="OS4" s="20"/>
+      <c r="OT4" s="18"/>
       <c r="OU4" s="18"/>
       <c r="OV4" s="18"/>
       <c r="OW4" s="18"/>
@@ -4862,9 +4867,9 @@
       <c r="PG4" s="18"/>
       <c r="PH4" s="18"/>
       <c r="PI4" s="18"/>
-      <c r="PJ4" s="18"/>
-      <c r="PK4" s="19"/>
-      <c r="PL4" s="19"/>
+      <c r="PJ4" s="20"/>
+      <c r="PK4" s="20"/>
+      <c r="PL4" s="18"/>
       <c r="PM4" s="18"/>
       <c r="PN4" s="18"/>
       <c r="PO4" s="18"/>
@@ -4890,9 +4895,9 @@
       <c r="QI4" s="18"/>
       <c r="QJ4" s="18"/>
       <c r="QK4" s="18"/>
-      <c r="QL4" s="18"/>
-      <c r="QM4" s="19"/>
-      <c r="QN4" s="19"/>
+      <c r="QL4" s="20"/>
+      <c r="QM4" s="20"/>
+      <c r="QN4" s="18"/>
       <c r="QO4" s="18"/>
       <c r="QP4" s="18"/>
       <c r="QQ4" s="18"/>
@@ -4904,37 +4909,36 @@
       <c r="QW4" s="18"/>
       <c r="QX4" s="18"/>
       <c r="QY4" s="18"/>
-      <c r="QZ4" s="18"/>
-      <c r="RA4" s="19"/>
-      <c r="RB4" s="19"/>
-      <c r="RC4" s="19"/>
-      <c r="RD4" s="19"/>
-      <c r="RE4" s="19"/>
-      <c r="RF4" s="19"/>
-      <c r="RG4" s="19"/>
-      <c r="RH4" s="19"/>
-      <c r="RI4" s="19"/>
-      <c r="RJ4" s="19"/>
-      <c r="RK4" s="19"/>
-      <c r="RL4" s="19"/>
-      <c r="RM4" s="19"/>
-      <c r="RN4" s="19"/>
-      <c r="RO4" s="19"/>
-      <c r="RP4" s="19"/>
-      <c r="RQ4" s="19"/>
-      <c r="RR4" s="19"/>
-      <c r="RS4" s="19"/>
-      <c r="RT4" s="19"/>
-      <c r="RU4" s="19"/>
-      <c r="RV4" s="19"/>
-      <c r="RW4" s="19"/>
-      <c r="RX4" s="19"/>
-      <c r="RY4" s="19"/>
-      <c r="RZ4" s="19"/>
-      <c r="SA4" s="19"/>
-      <c r="SB4" s="19"/>
-      <c r="SC4" s="19"/>
-      <c r="SD4" s="19"/>
+      <c r="QZ4" s="20"/>
+      <c r="RA4" s="20"/>
+      <c r="RB4" s="20"/>
+      <c r="RC4" s="20"/>
+      <c r="RD4" s="20"/>
+      <c r="RE4" s="20"/>
+      <c r="RF4" s="20"/>
+      <c r="RG4" s="20"/>
+      <c r="RH4" s="20"/>
+      <c r="RI4" s="20"/>
+      <c r="RJ4" s="20"/>
+      <c r="RK4" s="20"/>
+      <c r="RL4" s="20"/>
+      <c r="RM4" s="20"/>
+      <c r="RN4" s="20"/>
+      <c r="RO4" s="20"/>
+      <c r="RP4" s="20"/>
+      <c r="RQ4" s="20"/>
+      <c r="RR4" s="20"/>
+      <c r="RS4" s="20"/>
+      <c r="RT4" s="20"/>
+      <c r="RU4" s="20"/>
+      <c r="RV4" s="20"/>
+      <c r="RW4" s="20"/>
+      <c r="RX4" s="20"/>
+      <c r="RY4" s="20"/>
+      <c r="RZ4" s="20"/>
+      <c r="SA4" s="20"/>
+      <c r="SB4" s="20"/>
+      <c r="SC4" s="20"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="17"/>
@@ -4947,8 +4951,8 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
@@ -4961,8 +4965,8 @@
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
       <c r="Y5" s="18"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
       <c r="AD5" s="18"/>
@@ -4974,7 +4978,7 @@
       <c r="AJ5" s="18"/>
       <c r="AK5" s="18"/>
       <c r="AL5" s="18"/>
-      <c r="AM5" s="19"/>
+      <c r="AM5" s="20"/>
       <c r="AN5" s="18"/>
       <c r="AO5" s="18"/>
       <c r="AP5" s="18"/>
@@ -4984,7 +4988,7 @@
       <c r="AT5" s="18"/>
       <c r="AU5" s="18"/>
       <c r="AV5" s="18"/>
-      <c r="AW5" s="19"/>
+      <c r="AW5" s="20"/>
       <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="AZ5" s="18"/>
@@ -5011,8 +5015,8 @@
       <c r="BU5" s="18"/>
       <c r="BV5" s="18"/>
       <c r="BW5" s="18"/>
-      <c r="BX5" s="19"/>
-      <c r="BY5" s="19"/>
+      <c r="BX5" s="20"/>
+      <c r="BY5" s="20"/>
       <c r="BZ5" s="18"/>
       <c r="CA5" s="18"/>
       <c r="CB5" s="18"/>
@@ -5111,8 +5115,8 @@
       <c r="FQ5" s="18"/>
       <c r="FR5" s="18"/>
       <c r="FS5" s="18"/>
-      <c r="FT5" s="19"/>
-      <c r="FU5" s="19"/>
+      <c r="FT5" s="20"/>
+      <c r="FU5" s="20"/>
       <c r="FV5" s="18"/>
       <c r="FW5" s="18"/>
       <c r="FX5" s="18"/>
@@ -5120,8 +5124,8 @@
       <c r="FZ5" s="18"/>
       <c r="GA5" s="18"/>
       <c r="GB5" s="18"/>
-      <c r="GC5" s="19"/>
-      <c r="GD5" s="19"/>
+      <c r="GC5" s="20"/>
+      <c r="GD5" s="20"/>
       <c r="GE5" s="18"/>
       <c r="GF5" s="18"/>
       <c r="GG5" s="18"/>
@@ -5134,8 +5138,8 @@
       <c r="GN5" s="18"/>
       <c r="GO5" s="18"/>
       <c r="GP5" s="18"/>
-      <c r="GQ5" s="20"/>
-      <c r="GR5" s="20"/>
+      <c r="GQ5" s="18"/>
+      <c r="GR5" s="21"/>
       <c r="GS5" s="18"/>
       <c r="GT5" s="18"/>
       <c r="GU5" s="18"/>
@@ -5185,9 +5189,9 @@
       <c r="IM5" s="18"/>
       <c r="IN5" s="18"/>
       <c r="IO5" s="18"/>
-      <c r="IP5" s="18"/>
-      <c r="IQ5" s="19"/>
-      <c r="IR5" s="19"/>
+      <c r="IP5" s="20"/>
+      <c r="IQ5" s="20"/>
+      <c r="IR5" s="18"/>
       <c r="IS5" s="18"/>
       <c r="IT5" s="18"/>
       <c r="IU5" s="18"/>
@@ -5209,9 +5213,9 @@
       <c r="JK5" s="18"/>
       <c r="JL5" s="18"/>
       <c r="JM5" s="18"/>
-      <c r="JN5" s="18"/>
-      <c r="JO5" s="19"/>
-      <c r="JP5" s="19"/>
+      <c r="JN5" s="20"/>
+      <c r="JO5" s="20"/>
+      <c r="JP5" s="18"/>
       <c r="JQ5" s="18"/>
       <c r="JR5" s="18"/>
       <c r="JS5" s="18"/>
@@ -5248,9 +5252,9 @@
       <c r="KX5" s="18"/>
       <c r="KY5" s="18"/>
       <c r="KZ5" s="18"/>
-      <c r="LA5" s="18"/>
-      <c r="LB5" s="19"/>
-      <c r="LC5" s="19"/>
+      <c r="LA5" s="20"/>
+      <c r="LB5" s="20"/>
+      <c r="LC5" s="18"/>
       <c r="LD5" s="18"/>
       <c r="LE5" s="18"/>
       <c r="LF5" s="18"/>
@@ -5290,10 +5294,10 @@
       <c r="MN5" s="18"/>
       <c r="MO5" s="18"/>
       <c r="MP5" s="18"/>
-      <c r="MQ5" s="18"/>
-      <c r="MR5" s="19"/>
-      <c r="MS5" s="19"/>
-      <c r="MT5" s="19"/>
+      <c r="MQ5" s="20"/>
+      <c r="MR5" s="20"/>
+      <c r="MS5" s="20"/>
+      <c r="MT5" s="18"/>
       <c r="MU5" s="18"/>
       <c r="MV5" s="18"/>
       <c r="MW5" s="18"/>
@@ -5315,12 +5319,12 @@
       <c r="NM5" s="18"/>
       <c r="NN5" s="18"/>
       <c r="NO5" s="18"/>
-      <c r="NP5" s="18"/>
-      <c r="NQ5" s="19"/>
+      <c r="NP5" s="20"/>
+      <c r="NQ5" s="18"/>
       <c r="NR5" s="18"/>
-      <c r="NS5" s="18"/>
-      <c r="NT5" s="19"/>
-      <c r="NU5" s="19"/>
+      <c r="NS5" s="20"/>
+      <c r="NT5" s="20"/>
+      <c r="NU5" s="18"/>
       <c r="NV5" s="18"/>
       <c r="NW5" s="18"/>
       <c r="NX5" s="18"/>
@@ -5343,9 +5347,9 @@
       <c r="OO5" s="18"/>
       <c r="OP5" s="18"/>
       <c r="OQ5" s="18"/>
-      <c r="OR5" s="18"/>
-      <c r="OS5" s="19"/>
-      <c r="OT5" s="19"/>
+      <c r="OR5" s="20"/>
+      <c r="OS5" s="20"/>
+      <c r="OT5" s="18"/>
       <c r="OU5" s="18"/>
       <c r="OV5" s="18"/>
       <c r="OW5" s="18"/>
@@ -5361,9 +5365,9 @@
       <c r="PG5" s="18"/>
       <c r="PH5" s="18"/>
       <c r="PI5" s="18"/>
-      <c r="PJ5" s="18"/>
-      <c r="PK5" s="19"/>
-      <c r="PL5" s="19"/>
+      <c r="PJ5" s="20"/>
+      <c r="PK5" s="20"/>
+      <c r="PL5" s="18"/>
       <c r="PM5" s="18"/>
       <c r="PN5" s="18"/>
       <c r="PO5" s="18"/>
@@ -5389,9 +5393,9 @@
       <c r="QI5" s="18"/>
       <c r="QJ5" s="18"/>
       <c r="QK5" s="18"/>
-      <c r="QL5" s="18"/>
-      <c r="QM5" s="19"/>
-      <c r="QN5" s="19"/>
+      <c r="QL5" s="20"/>
+      <c r="QM5" s="20"/>
+      <c r="QN5" s="18"/>
       <c r="QO5" s="18"/>
       <c r="QP5" s="18"/>
       <c r="QQ5" s="18"/>
@@ -5403,37 +5407,36 @@
       <c r="QW5" s="18"/>
       <c r="QX5" s="18"/>
       <c r="QY5" s="18"/>
-      <c r="QZ5" s="18"/>
-      <c r="RA5" s="19"/>
-      <c r="RB5" s="19"/>
-      <c r="RC5" s="19"/>
-      <c r="RD5" s="19"/>
-      <c r="RE5" s="19"/>
-      <c r="RF5" s="19"/>
-      <c r="RG5" s="19"/>
-      <c r="RH5" s="19"/>
-      <c r="RI5" s="19"/>
-      <c r="RJ5" s="19"/>
-      <c r="RK5" s="19"/>
-      <c r="RL5" s="19"/>
-      <c r="RM5" s="19"/>
-      <c r="RN5" s="19"/>
-      <c r="RO5" s="19"/>
-      <c r="RP5" s="19"/>
-      <c r="RQ5" s="19"/>
-      <c r="RR5" s="19"/>
-      <c r="RS5" s="19"/>
-      <c r="RT5" s="19"/>
-      <c r="RU5" s="19"/>
-      <c r="RV5" s="19"/>
-      <c r="RW5" s="19"/>
-      <c r="RX5" s="19"/>
-      <c r="RY5" s="19"/>
-      <c r="RZ5" s="19"/>
-      <c r="SA5" s="19"/>
-      <c r="SB5" s="19"/>
-      <c r="SC5" s="19"/>
-      <c r="SD5" s="19"/>
+      <c r="QZ5" s="20"/>
+      <c r="RA5" s="20"/>
+      <c r="RB5" s="20"/>
+      <c r="RC5" s="20"/>
+      <c r="RD5" s="20"/>
+      <c r="RE5" s="20"/>
+      <c r="RF5" s="20"/>
+      <c r="RG5" s="20"/>
+      <c r="RH5" s="20"/>
+      <c r="RI5" s="20"/>
+      <c r="RJ5" s="20"/>
+      <c r="RK5" s="20"/>
+      <c r="RL5" s="20"/>
+      <c r="RM5" s="20"/>
+      <c r="RN5" s="20"/>
+      <c r="RO5" s="20"/>
+      <c r="RP5" s="20"/>
+      <c r="RQ5" s="20"/>
+      <c r="RR5" s="20"/>
+      <c r="RS5" s="20"/>
+      <c r="RT5" s="20"/>
+      <c r="RU5" s="20"/>
+      <c r="RV5" s="20"/>
+      <c r="RW5" s="20"/>
+      <c r="RX5" s="20"/>
+      <c r="RY5" s="20"/>
+      <c r="RZ5" s="20"/>
+      <c r="SA5" s="20"/>
+      <c r="SB5" s="20"/>
+      <c r="SC5" s="20"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
@@ -5443,69 +5446,68 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="19"/>
-      <c r="FT6" s="19"/>
-      <c r="FU6" s="19"/>
-      <c r="GC6" s="19"/>
-      <c r="GD6" s="19"/>
-      <c r="GQ6" s="20"/>
-      <c r="GR6" s="20"/>
-      <c r="IQ6" s="19"/>
-      <c r="IR6" s="19"/>
-      <c r="JO6" s="19"/>
-      <c r="JP6" s="19"/>
-      <c r="LB6" s="19"/>
-      <c r="LC6" s="19"/>
-      <c r="MR6" s="19"/>
-      <c r="MS6" s="19"/>
-      <c r="MT6" s="19"/>
-      <c r="NQ6" s="19"/>
-      <c r="NT6" s="19"/>
-      <c r="NU6" s="19"/>
-      <c r="OS6" s="19"/>
-      <c r="OT6" s="19"/>
-      <c r="PK6" s="21"/>
-      <c r="PL6" s="21"/>
-      <c r="QM6" s="19"/>
-      <c r="QN6" s="19"/>
-      <c r="RA6" s="19"/>
-      <c r="RB6" s="19"/>
-      <c r="RC6" s="19"/>
-      <c r="RD6" s="19"/>
-      <c r="RE6" s="19"/>
-      <c r="RF6" s="19"/>
-      <c r="RG6" s="19"/>
-      <c r="RH6" s="19"/>
-      <c r="RI6" s="19"/>
-      <c r="RJ6" s="19"/>
-      <c r="RK6" s="19"/>
-      <c r="RL6" s="19"/>
-      <c r="RM6" s="19"/>
-      <c r="RN6" s="19"/>
-      <c r="RO6" s="19"/>
-      <c r="RP6" s="19"/>
-      <c r="RQ6" s="19"/>
-      <c r="RR6" s="19"/>
-      <c r="RS6" s="19"/>
-      <c r="RT6" s="19"/>
-      <c r="RU6" s="19"/>
-      <c r="RV6" s="19"/>
-      <c r="RW6" s="19"/>
-      <c r="RX6" s="19"/>
-      <c r="RY6" s="19"/>
-      <c r="RZ6" s="19"/>
-      <c r="SA6" s="19"/>
-      <c r="SB6" s="19"/>
-      <c r="SC6" s="19"/>
-      <c r="SD6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="BW6" s="20"/>
+      <c r="BX6" s="20"/>
+      <c r="BY6" s="20"/>
+      <c r="FT6" s="20"/>
+      <c r="FU6" s="20"/>
+      <c r="GC6" s="20"/>
+      <c r="GD6" s="20"/>
+      <c r="GR6" s="21"/>
+      <c r="IP6" s="20"/>
+      <c r="IQ6" s="20"/>
+      <c r="JN6" s="20"/>
+      <c r="JO6" s="20"/>
+      <c r="LA6" s="20"/>
+      <c r="LB6" s="20"/>
+      <c r="MQ6" s="20"/>
+      <c r="MR6" s="20"/>
+      <c r="MS6" s="20"/>
+      <c r="NP6" s="20"/>
+      <c r="NS6" s="20"/>
+      <c r="NT6" s="20"/>
+      <c r="OR6" s="20"/>
+      <c r="OS6" s="20"/>
+      <c r="PJ6" s="22"/>
+      <c r="PK6" s="22"/>
+      <c r="QL6" s="20"/>
+      <c r="QM6" s="20"/>
+      <c r="QZ6" s="20"/>
+      <c r="RA6" s="20"/>
+      <c r="RB6" s="20"/>
+      <c r="RC6" s="20"/>
+      <c r="RD6" s="20"/>
+      <c r="RE6" s="20"/>
+      <c r="RF6" s="20"/>
+      <c r="RG6" s="20"/>
+      <c r="RH6" s="20"/>
+      <c r="RI6" s="20"/>
+      <c r="RJ6" s="20"/>
+      <c r="RK6" s="20"/>
+      <c r="RL6" s="20"/>
+      <c r="RM6" s="20"/>
+      <c r="RN6" s="20"/>
+      <c r="RO6" s="20"/>
+      <c r="RP6" s="20"/>
+      <c r="RQ6" s="20"/>
+      <c r="RR6" s="20"/>
+      <c r="RS6" s="20"/>
+      <c r="RT6" s="20"/>
+      <c r="RU6" s="20"/>
+      <c r="RV6" s="20"/>
+      <c r="RW6" s="20"/>
+      <c r="RX6" s="20"/>
+      <c r="RY6" s="20"/>
+      <c r="RZ6" s="20"/>
+      <c r="SA6" s="20"/>
+      <c r="SB6" s="20"/>
+      <c r="SC6" s="20"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
@@ -5515,70 +5517,69 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
       <c r="AJ7" s="18"/>
-      <c r="AM7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="BW7" s="19"/>
-      <c r="BX7" s="19"/>
-      <c r="BY7" s="19"/>
-      <c r="FT7" s="19"/>
-      <c r="FU7" s="19"/>
-      <c r="GC7" s="19"/>
-      <c r="GD7" s="19"/>
-      <c r="GQ7" s="22"/>
-      <c r="GR7" s="22"/>
-      <c r="IQ7" s="19"/>
-      <c r="IR7" s="19"/>
-      <c r="JO7" s="21"/>
-      <c r="JP7" s="21"/>
-      <c r="LB7" s="19"/>
-      <c r="LC7" s="19"/>
-      <c r="MR7" s="19"/>
-      <c r="MS7" s="19"/>
-      <c r="MT7" s="19"/>
-      <c r="NQ7" s="19"/>
-      <c r="NT7" s="19"/>
-      <c r="NU7" s="19"/>
-      <c r="OS7" s="19"/>
-      <c r="OT7" s="19"/>
-      <c r="PK7" s="19"/>
-      <c r="PL7" s="19"/>
-      <c r="QM7" s="19"/>
-      <c r="QN7" s="19"/>
-      <c r="RA7" s="19"/>
-      <c r="RB7" s="19"/>
-      <c r="RC7" s="19"/>
-      <c r="RD7" s="19"/>
-      <c r="RE7" s="19"/>
-      <c r="RF7" s="19"/>
-      <c r="RG7" s="19"/>
-      <c r="RH7" s="19"/>
-      <c r="RI7" s="19"/>
-      <c r="RJ7" s="19"/>
-      <c r="RK7" s="19"/>
-      <c r="RL7" s="19"/>
-      <c r="RM7" s="19"/>
-      <c r="RN7" s="19"/>
-      <c r="RO7" s="19"/>
-      <c r="RP7" s="19"/>
-      <c r="RQ7" s="19"/>
-      <c r="RR7" s="19"/>
-      <c r="RS7" s="19"/>
-      <c r="RT7" s="19"/>
-      <c r="RU7" s="19"/>
-      <c r="RV7" s="19"/>
-      <c r="RW7" s="19"/>
-      <c r="RX7" s="19"/>
-      <c r="RY7" s="19"/>
-      <c r="RZ7" s="19"/>
-      <c r="SA7" s="19"/>
-      <c r="SB7" s="19"/>
-      <c r="SC7" s="19"/>
-      <c r="SD7" s="19"/>
+      <c r="AM7" s="20"/>
+      <c r="AW7" s="20"/>
+      <c r="BW7" s="20"/>
+      <c r="BX7" s="20"/>
+      <c r="BY7" s="20"/>
+      <c r="FT7" s="20"/>
+      <c r="FU7" s="20"/>
+      <c r="GC7" s="20"/>
+      <c r="GD7" s="20"/>
+      <c r="GR7" s="23"/>
+      <c r="IP7" s="20"/>
+      <c r="IQ7" s="20"/>
+      <c r="JN7" s="22"/>
+      <c r="JO7" s="22"/>
+      <c r="LA7" s="20"/>
+      <c r="LB7" s="20"/>
+      <c r="MQ7" s="20"/>
+      <c r="MR7" s="20"/>
+      <c r="MS7" s="20"/>
+      <c r="NP7" s="20"/>
+      <c r="NS7" s="20"/>
+      <c r="NT7" s="20"/>
+      <c r="OR7" s="20"/>
+      <c r="OS7" s="20"/>
+      <c r="PJ7" s="20"/>
+      <c r="PK7" s="20"/>
+      <c r="QL7" s="20"/>
+      <c r="QM7" s="20"/>
+      <c r="QZ7" s="20"/>
+      <c r="RA7" s="20"/>
+      <c r="RB7" s="20"/>
+      <c r="RC7" s="20"/>
+      <c r="RD7" s="20"/>
+      <c r="RE7" s="20"/>
+      <c r="RF7" s="20"/>
+      <c r="RG7" s="20"/>
+      <c r="RH7" s="20"/>
+      <c r="RI7" s="20"/>
+      <c r="RJ7" s="20"/>
+      <c r="RK7" s="20"/>
+      <c r="RL7" s="20"/>
+      <c r="RM7" s="20"/>
+      <c r="RN7" s="20"/>
+      <c r="RO7" s="20"/>
+      <c r="RP7" s="20"/>
+      <c r="RQ7" s="20"/>
+      <c r="RR7" s="20"/>
+      <c r="RS7" s="20"/>
+      <c r="RT7" s="20"/>
+      <c r="RU7" s="20"/>
+      <c r="RV7" s="20"/>
+      <c r="RW7" s="20"/>
+      <c r="RX7" s="20"/>
+      <c r="RY7" s="20"/>
+      <c r="RZ7" s="20"/>
+      <c r="SA7" s="20"/>
+      <c r="SB7" s="20"/>
+      <c r="SC7" s="20"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
@@ -5587,69 +5588,68 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="BW8" s="19"/>
-      <c r="BX8" s="19"/>
-      <c r="BY8" s="19"/>
-      <c r="FT8" s="19"/>
-      <c r="FU8" s="19"/>
-      <c r="GC8" s="19"/>
-      <c r="GD8" s="19"/>
-      <c r="GQ8" s="22"/>
-      <c r="GR8" s="22"/>
-      <c r="IQ8" s="19"/>
-      <c r="IR8" s="19"/>
-      <c r="JO8" s="21"/>
-      <c r="JP8" s="21"/>
-      <c r="LB8" s="19"/>
-      <c r="LC8" s="19"/>
-      <c r="MR8" s="19"/>
-      <c r="MS8" s="19"/>
-      <c r="MT8" s="19"/>
-      <c r="NQ8" s="19"/>
-      <c r="NT8" s="19"/>
-      <c r="NU8" s="19"/>
-      <c r="OS8" s="19"/>
-      <c r="OT8" s="19"/>
-      <c r="PK8" s="19"/>
-      <c r="PL8" s="19"/>
-      <c r="QM8" s="19"/>
-      <c r="QN8" s="19"/>
-      <c r="RA8" s="19"/>
-      <c r="RB8" s="19"/>
-      <c r="RC8" s="19"/>
-      <c r="RD8" s="19"/>
-      <c r="RE8" s="19"/>
-      <c r="RF8" s="19"/>
-      <c r="RG8" s="19"/>
-      <c r="RH8" s="19"/>
-      <c r="RI8" s="19"/>
-      <c r="RJ8" s="19"/>
-      <c r="RK8" s="19"/>
-      <c r="RL8" s="19"/>
-      <c r="RM8" s="19"/>
-      <c r="RN8" s="19"/>
-      <c r="RO8" s="19"/>
-      <c r="RP8" s="19"/>
-      <c r="RQ8" s="19"/>
-      <c r="RR8" s="19"/>
-      <c r="RS8" s="19"/>
-      <c r="RT8" s="19"/>
-      <c r="RU8" s="19"/>
-      <c r="RV8" s="19"/>
-      <c r="RW8" s="19"/>
-      <c r="RX8" s="19"/>
-      <c r="RY8" s="19"/>
-      <c r="RZ8" s="19"/>
-      <c r="SA8" s="19"/>
-      <c r="SB8" s="19"/>
-      <c r="SC8" s="19"/>
-      <c r="SD8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AW8" s="20"/>
+      <c r="BW8" s="20"/>
+      <c r="BX8" s="20"/>
+      <c r="BY8" s="20"/>
+      <c r="FT8" s="20"/>
+      <c r="FU8" s="20"/>
+      <c r="GC8" s="20"/>
+      <c r="GD8" s="20"/>
+      <c r="GR8" s="23"/>
+      <c r="IP8" s="20"/>
+      <c r="IQ8" s="20"/>
+      <c r="JN8" s="22"/>
+      <c r="JO8" s="22"/>
+      <c r="LA8" s="20"/>
+      <c r="LB8" s="20"/>
+      <c r="MQ8" s="20"/>
+      <c r="MR8" s="20"/>
+      <c r="MS8" s="20"/>
+      <c r="NP8" s="20"/>
+      <c r="NS8" s="20"/>
+      <c r="NT8" s="20"/>
+      <c r="OR8" s="20"/>
+      <c r="OS8" s="20"/>
+      <c r="PJ8" s="20"/>
+      <c r="PK8" s="20"/>
+      <c r="QL8" s="20"/>
+      <c r="QM8" s="20"/>
+      <c r="QZ8" s="20"/>
+      <c r="RA8" s="20"/>
+      <c r="RB8" s="20"/>
+      <c r="RC8" s="20"/>
+      <c r="RD8" s="20"/>
+      <c r="RE8" s="20"/>
+      <c r="RF8" s="20"/>
+      <c r="RG8" s="20"/>
+      <c r="RH8" s="20"/>
+      <c r="RI8" s="20"/>
+      <c r="RJ8" s="20"/>
+      <c r="RK8" s="20"/>
+      <c r="RL8" s="20"/>
+      <c r="RM8" s="20"/>
+      <c r="RN8" s="20"/>
+      <c r="RO8" s="20"/>
+      <c r="RP8" s="20"/>
+      <c r="RQ8" s="20"/>
+      <c r="RR8" s="20"/>
+      <c r="RS8" s="20"/>
+      <c r="RT8" s="20"/>
+      <c r="RU8" s="20"/>
+      <c r="RV8" s="20"/>
+      <c r="RW8" s="20"/>
+      <c r="RX8" s="20"/>
+      <c r="RY8" s="20"/>
+      <c r="RZ8" s="20"/>
+      <c r="SA8" s="20"/>
+      <c r="SB8" s="20"/>
+      <c r="SC8" s="20"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
@@ -5658,69 +5658,68 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="FT9" s="19"/>
-      <c r="FU9" s="19"/>
-      <c r="GC9" s="19"/>
-      <c r="GD9" s="19"/>
-      <c r="GQ9" s="22"/>
-      <c r="GR9" s="22"/>
-      <c r="IQ9" s="19"/>
-      <c r="IR9" s="19"/>
-      <c r="JO9" s="21"/>
-      <c r="JP9" s="21"/>
-      <c r="LB9" s="19"/>
-      <c r="LC9" s="19"/>
-      <c r="MR9" s="19"/>
-      <c r="MS9" s="19"/>
-      <c r="MT9" s="19"/>
-      <c r="NQ9" s="19"/>
-      <c r="NT9" s="19"/>
-      <c r="NU9" s="19"/>
-      <c r="OS9" s="19"/>
-      <c r="OT9" s="19"/>
-      <c r="PK9" s="19"/>
-      <c r="PL9" s="19"/>
-      <c r="QM9" s="19"/>
-      <c r="QN9" s="19"/>
-      <c r="RA9" s="19"/>
-      <c r="RB9" s="19"/>
-      <c r="RC9" s="19"/>
-      <c r="RD9" s="19"/>
-      <c r="RE9" s="19"/>
-      <c r="RF9" s="19"/>
-      <c r="RG9" s="19"/>
-      <c r="RH9" s="19"/>
-      <c r="RI9" s="19"/>
-      <c r="RJ9" s="19"/>
-      <c r="RK9" s="19"/>
-      <c r="RL9" s="19"/>
-      <c r="RM9" s="19"/>
-      <c r="RN9" s="19"/>
-      <c r="RO9" s="19"/>
-      <c r="RP9" s="19"/>
-      <c r="RQ9" s="19"/>
-      <c r="RR9" s="19"/>
-      <c r="RS9" s="19"/>
-      <c r="RT9" s="19"/>
-      <c r="RU9" s="19"/>
-      <c r="RV9" s="19"/>
-      <c r="RW9" s="19"/>
-      <c r="RX9" s="19"/>
-      <c r="RY9" s="19"/>
-      <c r="RZ9" s="19"/>
-      <c r="SA9" s="19"/>
-      <c r="SB9" s="19"/>
-      <c r="SC9" s="19"/>
-      <c r="SD9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="FT9" s="20"/>
+      <c r="FU9" s="20"/>
+      <c r="GC9" s="20"/>
+      <c r="GD9" s="20"/>
+      <c r="GR9" s="23"/>
+      <c r="IP9" s="20"/>
+      <c r="IQ9" s="20"/>
+      <c r="JN9" s="22"/>
+      <c r="JO9" s="22"/>
+      <c r="LA9" s="20"/>
+      <c r="LB9" s="20"/>
+      <c r="MQ9" s="20"/>
+      <c r="MR9" s="20"/>
+      <c r="MS9" s="20"/>
+      <c r="NP9" s="20"/>
+      <c r="NS9" s="20"/>
+      <c r="NT9" s="20"/>
+      <c r="OR9" s="20"/>
+      <c r="OS9" s="20"/>
+      <c r="PJ9" s="20"/>
+      <c r="PK9" s="20"/>
+      <c r="QL9" s="20"/>
+      <c r="QM9" s="20"/>
+      <c r="QZ9" s="20"/>
+      <c r="RA9" s="20"/>
+      <c r="RB9" s="20"/>
+      <c r="RC9" s="20"/>
+      <c r="RD9" s="20"/>
+      <c r="RE9" s="20"/>
+      <c r="RF9" s="20"/>
+      <c r="RG9" s="20"/>
+      <c r="RH9" s="20"/>
+      <c r="RI9" s="20"/>
+      <c r="RJ9" s="20"/>
+      <c r="RK9" s="20"/>
+      <c r="RL9" s="20"/>
+      <c r="RM9" s="20"/>
+      <c r="RN9" s="20"/>
+      <c r="RO9" s="20"/>
+      <c r="RP9" s="20"/>
+      <c r="RQ9" s="20"/>
+      <c r="RR9" s="20"/>
+      <c r="RS9" s="20"/>
+      <c r="RT9" s="20"/>
+      <c r="RU9" s="20"/>
+      <c r="RV9" s="20"/>
+      <c r="RW9" s="20"/>
+      <c r="RX9" s="20"/>
+      <c r="RY9" s="20"/>
+      <c r="RZ9" s="20"/>
+      <c r="SA9" s="20"/>
+      <c r="SB9" s="20"/>
+      <c r="SC9" s="20"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="17"/>
@@ -5729,1209 +5728,1164 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="BW10" s="19"/>
-      <c r="BX10" s="19"/>
-      <c r="BY10" s="19"/>
-      <c r="EV10" s="19"/>
-      <c r="EW10" s="19"/>
-      <c r="FT10" s="19"/>
-      <c r="FU10" s="19"/>
-      <c r="GC10" s="19"/>
-      <c r="GD10" s="19"/>
-      <c r="GQ10" s="20"/>
-      <c r="GR10" s="20"/>
-      <c r="IQ10" s="19"/>
-      <c r="IR10" s="19"/>
-      <c r="JO10" s="21"/>
-      <c r="JP10" s="21"/>
-      <c r="LB10" s="19"/>
-      <c r="LC10" s="19"/>
-      <c r="MR10" s="19"/>
-      <c r="MS10" s="19"/>
-      <c r="MT10" s="19"/>
-      <c r="NQ10" s="19"/>
-      <c r="NT10" s="19"/>
-      <c r="NU10" s="19"/>
-      <c r="OS10" s="19"/>
-      <c r="OT10" s="19"/>
-      <c r="PK10" s="19"/>
-      <c r="PL10" s="19"/>
-      <c r="QM10" s="19"/>
-      <c r="QN10" s="19"/>
-      <c r="RA10" s="19"/>
-      <c r="RB10" s="19"/>
-      <c r="RC10" s="19"/>
-      <c r="RD10" s="19"/>
-      <c r="RE10" s="19"/>
-      <c r="RF10" s="19"/>
-      <c r="RG10" s="19"/>
-      <c r="RH10" s="19"/>
-      <c r="RI10" s="19"/>
-      <c r="RJ10" s="19"/>
-      <c r="RK10" s="19"/>
-      <c r="RL10" s="19"/>
-      <c r="RM10" s="19"/>
-      <c r="RN10" s="19"/>
-      <c r="RO10" s="19"/>
-      <c r="RP10" s="19"/>
-      <c r="RQ10" s="19"/>
-      <c r="RR10" s="19"/>
-      <c r="RS10" s="19"/>
-      <c r="RT10" s="19"/>
-      <c r="RU10" s="19"/>
-      <c r="RV10" s="19"/>
-      <c r="RW10" s="19"/>
-      <c r="RX10" s="19"/>
-      <c r="RY10" s="19"/>
-      <c r="RZ10" s="19"/>
-      <c r="SA10" s="19"/>
-      <c r="SB10" s="19"/>
-      <c r="SC10" s="19"/>
-      <c r="SD10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="BW10" s="20"/>
+      <c r="BX10" s="20"/>
+      <c r="BY10" s="20"/>
+      <c r="EV10" s="20"/>
+      <c r="EW10" s="20"/>
+      <c r="FT10" s="20"/>
+      <c r="FU10" s="20"/>
+      <c r="GC10" s="20"/>
+      <c r="GD10" s="20"/>
+      <c r="GR10" s="21"/>
+      <c r="IP10" s="20"/>
+      <c r="IQ10" s="20"/>
+      <c r="JN10" s="22"/>
+      <c r="JO10" s="22"/>
+      <c r="LA10" s="20"/>
+      <c r="LB10" s="20"/>
+      <c r="MQ10" s="20"/>
+      <c r="MR10" s="20"/>
+      <c r="MS10" s="20"/>
+      <c r="NP10" s="20"/>
+      <c r="NS10" s="20"/>
+      <c r="NT10" s="20"/>
+      <c r="OR10" s="20"/>
+      <c r="OS10" s="20"/>
+      <c r="PJ10" s="20"/>
+      <c r="PK10" s="20"/>
+      <c r="QL10" s="20"/>
+      <c r="QM10" s="20"/>
+      <c r="QZ10" s="20"/>
+      <c r="RA10" s="20"/>
+      <c r="RB10" s="20"/>
+      <c r="RC10" s="20"/>
+      <c r="RD10" s="20"/>
+      <c r="RE10" s="20"/>
+      <c r="RF10" s="20"/>
+      <c r="RG10" s="20"/>
+      <c r="RH10" s="20"/>
+      <c r="RI10" s="20"/>
+      <c r="RJ10" s="20"/>
+      <c r="RK10" s="20"/>
+      <c r="RL10" s="20"/>
+      <c r="RM10" s="20"/>
+      <c r="RN10" s="20"/>
+      <c r="RO10" s="20"/>
+      <c r="RP10" s="20"/>
+      <c r="RQ10" s="20"/>
+      <c r="RR10" s="20"/>
+      <c r="RS10" s="20"/>
+      <c r="RT10" s="20"/>
+      <c r="RU10" s="20"/>
+      <c r="RV10" s="20"/>
+      <c r="RW10" s="20"/>
+      <c r="RX10" s="20"/>
+      <c r="RY10" s="20"/>
+      <c r="RZ10" s="20"/>
+      <c r="SA10" s="20"/>
+      <c r="SB10" s="20"/>
+      <c r="SC10" s="20"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="BW11" s="19"/>
-      <c r="BX11" s="19"/>
-      <c r="BY11" s="19"/>
-      <c r="EV11" s="19"/>
-      <c r="EW11" s="19"/>
-      <c r="FT11" s="19"/>
-      <c r="FU11" s="19"/>
-      <c r="GC11" s="19"/>
-      <c r="GD11" s="19"/>
-      <c r="GQ11" s="22"/>
-      <c r="GR11" s="22"/>
-      <c r="IQ11" s="19"/>
-      <c r="IR11" s="19"/>
-      <c r="JO11" s="19"/>
-      <c r="JP11" s="19"/>
-      <c r="LB11" s="19"/>
-      <c r="LC11" s="19"/>
-      <c r="MR11" s="19"/>
-      <c r="MS11" s="19"/>
-      <c r="MT11" s="19"/>
-      <c r="NQ11" s="19"/>
-      <c r="NT11" s="19"/>
-      <c r="NU11" s="19"/>
-      <c r="OS11" s="19"/>
-      <c r="OT11" s="19"/>
-      <c r="PK11" s="19"/>
-      <c r="PL11" s="19"/>
-      <c r="QM11" s="19"/>
-      <c r="QN11" s="19"/>
-      <c r="RA11" s="19"/>
-      <c r="RB11" s="19"/>
-      <c r="RC11" s="19"/>
-      <c r="RD11" s="19"/>
-      <c r="RE11" s="19"/>
-      <c r="RF11" s="19"/>
-      <c r="RG11" s="19"/>
-      <c r="RH11" s="19"/>
-      <c r="RI11" s="19"/>
-      <c r="RJ11" s="19"/>
-      <c r="RK11" s="19"/>
-      <c r="RL11" s="19"/>
-      <c r="RM11" s="19"/>
-      <c r="RN11" s="19"/>
-      <c r="RO11" s="19"/>
-      <c r="RP11" s="19"/>
-      <c r="RQ11" s="19"/>
-      <c r="RR11" s="19"/>
-      <c r="RS11" s="19"/>
-      <c r="RT11" s="19"/>
-      <c r="RU11" s="19"/>
-      <c r="RV11" s="19"/>
-      <c r="RW11" s="19"/>
-      <c r="RX11" s="19"/>
-      <c r="RY11" s="19"/>
-      <c r="RZ11" s="19"/>
-      <c r="SA11" s="19"/>
-      <c r="SB11" s="19"/>
-      <c r="SC11" s="19"/>
-      <c r="SD11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="BW11" s="20"/>
+      <c r="BX11" s="20"/>
+      <c r="BY11" s="20"/>
+      <c r="EV11" s="20"/>
+      <c r="EW11" s="20"/>
+      <c r="FT11" s="20"/>
+      <c r="FU11" s="20"/>
+      <c r="GC11" s="20"/>
+      <c r="GD11" s="20"/>
+      <c r="GR11" s="23"/>
+      <c r="IP11" s="20"/>
+      <c r="IQ11" s="20"/>
+      <c r="JN11" s="20"/>
+      <c r="JO11" s="20"/>
+      <c r="LA11" s="20"/>
+      <c r="LB11" s="20"/>
+      <c r="MQ11" s="20"/>
+      <c r="MR11" s="20"/>
+      <c r="MS11" s="20"/>
+      <c r="NP11" s="20"/>
+      <c r="NS11" s="20"/>
+      <c r="NT11" s="20"/>
+      <c r="OR11" s="20"/>
+      <c r="OS11" s="20"/>
+      <c r="PJ11" s="20"/>
+      <c r="PK11" s="20"/>
+      <c r="QL11" s="20"/>
+      <c r="QM11" s="20"/>
+      <c r="QZ11" s="20"/>
+      <c r="RA11" s="20"/>
+      <c r="RB11" s="20"/>
+      <c r="RC11" s="20"/>
+      <c r="RD11" s="20"/>
+      <c r="RE11" s="20"/>
+      <c r="RF11" s="20"/>
+      <c r="RG11" s="20"/>
+      <c r="RH11" s="20"/>
+      <c r="RI11" s="20"/>
+      <c r="RJ11" s="20"/>
+      <c r="RK11" s="20"/>
+      <c r="RL11" s="20"/>
+      <c r="RM11" s="20"/>
+      <c r="RN11" s="20"/>
+      <c r="RO11" s="20"/>
+      <c r="RP11" s="20"/>
+      <c r="RQ11" s="20"/>
+      <c r="RR11" s="20"/>
+      <c r="RS11" s="20"/>
+      <c r="RT11" s="20"/>
+      <c r="RU11" s="20"/>
+      <c r="RV11" s="20"/>
+      <c r="RW11" s="20"/>
+      <c r="RX11" s="20"/>
+      <c r="RY11" s="20"/>
+      <c r="RZ11" s="20"/>
+      <c r="SA11" s="20"/>
+      <c r="SB11" s="20"/>
+      <c r="SC11" s="20"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="BW12" s="19"/>
-      <c r="BX12" s="19"/>
-      <c r="BY12" s="19"/>
-      <c r="EV12" s="19"/>
-      <c r="EW12" s="19"/>
-      <c r="GC12" s="19"/>
-      <c r="GD12" s="19"/>
-      <c r="GQ12" s="22"/>
-      <c r="GR12" s="22"/>
-      <c r="IQ12" s="19"/>
-      <c r="IR12" s="19"/>
-      <c r="JO12" s="19"/>
-      <c r="JP12" s="19"/>
-      <c r="LB12" s="19"/>
-      <c r="LC12" s="19"/>
-      <c r="MR12" s="19"/>
-      <c r="MS12" s="19"/>
-      <c r="MT12" s="19"/>
-      <c r="NQ12" s="19"/>
-      <c r="NT12" s="19"/>
-      <c r="NU12" s="19"/>
-      <c r="OS12" s="19"/>
-      <c r="OT12" s="19"/>
-      <c r="PK12" s="19"/>
-      <c r="PL12" s="19"/>
-      <c r="QM12" s="19"/>
-      <c r="QN12" s="19"/>
-      <c r="RA12" s="19"/>
-      <c r="RB12" s="19"/>
-      <c r="RC12" s="19"/>
-      <c r="RD12" s="19"/>
-      <c r="RE12" s="19"/>
-      <c r="RF12" s="19"/>
-      <c r="RG12" s="19"/>
-      <c r="RH12" s="19"/>
-      <c r="RI12" s="19"/>
-      <c r="RJ12" s="19"/>
-      <c r="RK12" s="19"/>
-      <c r="RL12" s="19"/>
-      <c r="RM12" s="19"/>
-      <c r="RN12" s="19"/>
-      <c r="RO12" s="19"/>
-      <c r="RP12" s="19"/>
-      <c r="RQ12" s="19"/>
-      <c r="RR12" s="19"/>
-      <c r="RS12" s="19"/>
-      <c r="RT12" s="19"/>
-      <c r="RU12" s="19"/>
-      <c r="RV12" s="19"/>
-      <c r="RW12" s="19"/>
-      <c r="RX12" s="19"/>
-      <c r="RY12" s="19"/>
-      <c r="RZ12" s="19"/>
-      <c r="SA12" s="19"/>
-      <c r="SB12" s="19"/>
-      <c r="SC12" s="19"/>
-      <c r="SD12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="BW12" s="20"/>
+      <c r="BX12" s="20"/>
+      <c r="BY12" s="20"/>
+      <c r="EV12" s="20"/>
+      <c r="EW12" s="20"/>
+      <c r="GC12" s="20"/>
+      <c r="GD12" s="20"/>
+      <c r="GR12" s="23"/>
+      <c r="IP12" s="20"/>
+      <c r="IQ12" s="20"/>
+      <c r="JN12" s="20"/>
+      <c r="JO12" s="20"/>
+      <c r="LA12" s="20"/>
+      <c r="LB12" s="20"/>
+      <c r="MQ12" s="20"/>
+      <c r="MR12" s="20"/>
+      <c r="MS12" s="20"/>
+      <c r="NP12" s="20"/>
+      <c r="NS12" s="20"/>
+      <c r="NT12" s="20"/>
+      <c r="OR12" s="20"/>
+      <c r="OS12" s="20"/>
+      <c r="PJ12" s="20"/>
+      <c r="PK12" s="20"/>
+      <c r="QL12" s="20"/>
+      <c r="QM12" s="20"/>
+      <c r="QZ12" s="20"/>
+      <c r="RA12" s="20"/>
+      <c r="RB12" s="20"/>
+      <c r="RC12" s="20"/>
+      <c r="RD12" s="20"/>
+      <c r="RE12" s="20"/>
+      <c r="RF12" s="20"/>
+      <c r="RG12" s="20"/>
+      <c r="RH12" s="20"/>
+      <c r="RI12" s="20"/>
+      <c r="RJ12" s="20"/>
+      <c r="RK12" s="20"/>
+      <c r="RL12" s="20"/>
+      <c r="RM12" s="20"/>
+      <c r="RN12" s="20"/>
+      <c r="RO12" s="20"/>
+      <c r="RP12" s="20"/>
+      <c r="RQ12" s="20"/>
+      <c r="RR12" s="20"/>
+      <c r="RS12" s="20"/>
+      <c r="RT12" s="20"/>
+      <c r="RU12" s="20"/>
+      <c r="RV12" s="20"/>
+      <c r="RW12" s="20"/>
+      <c r="RX12" s="20"/>
+      <c r="RY12" s="20"/>
+      <c r="RZ12" s="20"/>
+      <c r="SA12" s="20"/>
+      <c r="SB12" s="20"/>
+      <c r="SC12" s="20"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="C13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AW13" s="19"/>
-      <c r="BW13" s="19"/>
-      <c r="BX13" s="19"/>
-      <c r="BY13" s="19"/>
-      <c r="EV13" s="19"/>
-      <c r="EW13" s="19"/>
-      <c r="GC13" s="19"/>
-      <c r="GD13" s="19"/>
-      <c r="GQ13" s="22"/>
-      <c r="GR13" s="22"/>
-      <c r="IQ13" s="19"/>
-      <c r="IR13" s="19"/>
-      <c r="JO13" s="19"/>
-      <c r="JP13" s="19"/>
-      <c r="LB13" s="19"/>
-      <c r="LC13" s="19"/>
-      <c r="MR13" s="19"/>
-      <c r="MS13" s="19"/>
-      <c r="MT13" s="19"/>
-      <c r="NQ13" s="19"/>
-      <c r="NT13" s="19"/>
-      <c r="NU13" s="19"/>
-      <c r="OS13" s="19"/>
-      <c r="OT13" s="19"/>
-      <c r="PK13" s="19"/>
-      <c r="PL13" s="19"/>
-      <c r="QM13" s="19"/>
-      <c r="QN13" s="19"/>
-      <c r="RA13" s="19"/>
-      <c r="RB13" s="19"/>
-      <c r="RC13" s="19"/>
-      <c r="RD13" s="19"/>
-      <c r="RE13" s="19"/>
-      <c r="RF13" s="19"/>
-      <c r="RG13" s="19"/>
-      <c r="RH13" s="19"/>
-      <c r="RI13" s="19"/>
-      <c r="RJ13" s="19"/>
-      <c r="RK13" s="19"/>
-      <c r="RL13" s="19"/>
-      <c r="RM13" s="19"/>
-      <c r="RN13" s="19"/>
-      <c r="RO13" s="19"/>
-      <c r="RP13" s="19"/>
-      <c r="RQ13" s="19"/>
-      <c r="RR13" s="19"/>
-      <c r="RS13" s="19"/>
-      <c r="RT13" s="19"/>
-      <c r="RU13" s="19"/>
-      <c r="RV13" s="19"/>
-      <c r="RW13" s="19"/>
-      <c r="RX13" s="19"/>
-      <c r="RY13" s="19"/>
-      <c r="RZ13" s="19"/>
-      <c r="SA13" s="19"/>
-      <c r="SB13" s="19"/>
-      <c r="SC13" s="19"/>
-      <c r="SD13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="BW13" s="20"/>
+      <c r="BX13" s="20"/>
+      <c r="BY13" s="20"/>
+      <c r="EV13" s="20"/>
+      <c r="EW13" s="20"/>
+      <c r="GC13" s="20"/>
+      <c r="GD13" s="20"/>
+      <c r="GR13" s="23"/>
+      <c r="IP13" s="20"/>
+      <c r="IQ13" s="20"/>
+      <c r="JN13" s="20"/>
+      <c r="JO13" s="20"/>
+      <c r="LA13" s="20"/>
+      <c r="LB13" s="20"/>
+      <c r="MQ13" s="20"/>
+      <c r="MR13" s="20"/>
+      <c r="MS13" s="20"/>
+      <c r="NP13" s="20"/>
+      <c r="NS13" s="20"/>
+      <c r="NT13" s="20"/>
+      <c r="OR13" s="20"/>
+      <c r="OS13" s="20"/>
+      <c r="PJ13" s="20"/>
+      <c r="PK13" s="20"/>
+      <c r="QL13" s="20"/>
+      <c r="QM13" s="20"/>
+      <c r="QZ13" s="20"/>
+      <c r="RA13" s="20"/>
+      <c r="RB13" s="20"/>
+      <c r="RC13" s="20"/>
+      <c r="RD13" s="20"/>
+      <c r="RE13" s="20"/>
+      <c r="RF13" s="20"/>
+      <c r="RG13" s="20"/>
+      <c r="RH13" s="20"/>
+      <c r="RI13" s="20"/>
+      <c r="RJ13" s="20"/>
+      <c r="RK13" s="20"/>
+      <c r="RL13" s="20"/>
+      <c r="RM13" s="20"/>
+      <c r="RN13" s="20"/>
+      <c r="RO13" s="20"/>
+      <c r="RP13" s="20"/>
+      <c r="RQ13" s="20"/>
+      <c r="RR13" s="20"/>
+      <c r="RS13" s="20"/>
+      <c r="RT13" s="20"/>
+      <c r="RU13" s="20"/>
+      <c r="RV13" s="20"/>
+      <c r="RW13" s="20"/>
+      <c r="RX13" s="20"/>
+      <c r="RY13" s="20"/>
+      <c r="RZ13" s="20"/>
+      <c r="SA13" s="20"/>
+      <c r="SB13" s="20"/>
+      <c r="SC13" s="20"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="BW14" s="19"/>
-      <c r="BX14" s="19"/>
-      <c r="BY14" s="19"/>
-      <c r="EV14" s="19"/>
-      <c r="EW14" s="19"/>
-      <c r="GC14" s="19"/>
-      <c r="GD14" s="19"/>
-      <c r="GQ14" s="22"/>
-      <c r="GR14" s="22"/>
-      <c r="IQ14" s="19"/>
-      <c r="IR14" s="19"/>
-      <c r="JO14" s="19"/>
-      <c r="JP14" s="19"/>
-      <c r="LB14" s="19"/>
-      <c r="LC14" s="19"/>
-      <c r="MR14" s="19"/>
-      <c r="MS14" s="19"/>
-      <c r="MT14" s="19"/>
-      <c r="NQ14" s="19"/>
-      <c r="NT14" s="19"/>
-      <c r="NU14" s="19"/>
-      <c r="OS14" s="19"/>
-      <c r="OT14" s="19"/>
-      <c r="PK14" s="19"/>
-      <c r="PL14" s="19"/>
-      <c r="QM14" s="19"/>
-      <c r="QN14" s="19"/>
-      <c r="RA14" s="19"/>
-      <c r="RB14" s="19"/>
-      <c r="RC14" s="19"/>
-      <c r="RD14" s="19"/>
-      <c r="RE14" s="19"/>
-      <c r="RF14" s="19"/>
-      <c r="RG14" s="19"/>
-      <c r="RH14" s="19"/>
-      <c r="RI14" s="19"/>
-      <c r="RJ14" s="19"/>
-      <c r="RK14" s="19"/>
-      <c r="RL14" s="19"/>
-      <c r="RM14" s="19"/>
-      <c r="RN14" s="19"/>
-      <c r="RO14" s="19"/>
-      <c r="RP14" s="19"/>
-      <c r="RQ14" s="19"/>
-      <c r="RR14" s="19"/>
-      <c r="RS14" s="19"/>
-      <c r="RT14" s="19"/>
-      <c r="RU14" s="19"/>
-      <c r="RV14" s="19"/>
-      <c r="RW14" s="19"/>
-      <c r="RX14" s="19"/>
-      <c r="RY14" s="19"/>
-      <c r="RZ14" s="19"/>
-      <c r="SA14" s="19"/>
-      <c r="SB14" s="19"/>
-      <c r="SC14" s="19"/>
-      <c r="SD14" s="19"/>
+      <c r="A14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AW14" s="20"/>
+      <c r="BW14" s="20"/>
+      <c r="BX14" s="20"/>
+      <c r="BY14" s="20"/>
+      <c r="EV14" s="20"/>
+      <c r="EW14" s="20"/>
+      <c r="GC14" s="20"/>
+      <c r="GD14" s="20"/>
+      <c r="GR14" s="23"/>
+      <c r="IP14" s="20"/>
+      <c r="IQ14" s="20"/>
+      <c r="JN14" s="20"/>
+      <c r="JO14" s="20"/>
+      <c r="LA14" s="20"/>
+      <c r="LB14" s="20"/>
+      <c r="MQ14" s="20"/>
+      <c r="MR14" s="20"/>
+      <c r="MS14" s="20"/>
+      <c r="NP14" s="20"/>
+      <c r="NS14" s="20"/>
+      <c r="NT14" s="20"/>
+      <c r="OR14" s="20"/>
+      <c r="OS14" s="20"/>
+      <c r="PJ14" s="20"/>
+      <c r="PK14" s="20"/>
+      <c r="QL14" s="20"/>
+      <c r="QM14" s="20"/>
+      <c r="QZ14" s="20"/>
+      <c r="RA14" s="20"/>
+      <c r="RB14" s="20"/>
+      <c r="RC14" s="20"/>
+      <c r="RD14" s="20"/>
+      <c r="RE14" s="20"/>
+      <c r="RF14" s="20"/>
+      <c r="RG14" s="20"/>
+      <c r="RH14" s="20"/>
+      <c r="RI14" s="20"/>
+      <c r="RJ14" s="20"/>
+      <c r="RK14" s="20"/>
+      <c r="RL14" s="20"/>
+      <c r="RM14" s="20"/>
+      <c r="RN14" s="20"/>
+      <c r="RO14" s="20"/>
+      <c r="RP14" s="20"/>
+      <c r="RQ14" s="20"/>
+      <c r="RR14" s="20"/>
+      <c r="RS14" s="20"/>
+      <c r="RT14" s="20"/>
+      <c r="RU14" s="20"/>
+      <c r="RV14" s="20"/>
+      <c r="RW14" s="20"/>
+      <c r="RX14" s="20"/>
+      <c r="RY14" s="20"/>
+      <c r="RZ14" s="20"/>
+      <c r="SA14" s="20"/>
+      <c r="SB14" s="20"/>
+      <c r="SC14" s="20"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="AW15" s="19"/>
-      <c r="BW15" s="19"/>
-      <c r="BX15" s="19"/>
-      <c r="BY15" s="19"/>
-      <c r="EV15" s="19"/>
-      <c r="EW15" s="19"/>
-      <c r="GC15" s="19"/>
-      <c r="GD15" s="19"/>
-      <c r="GQ15" s="20"/>
-      <c r="GR15" s="20"/>
-      <c r="IQ15" s="19"/>
-      <c r="IR15" s="19"/>
-      <c r="JO15" s="19"/>
-      <c r="JP15" s="19"/>
-      <c r="LB15" s="19"/>
-      <c r="LC15" s="19"/>
-      <c r="MR15" s="19"/>
-      <c r="MS15" s="19"/>
-      <c r="MT15" s="19"/>
-      <c r="NQ15" s="19"/>
-      <c r="NT15" s="19"/>
-      <c r="NU15" s="19"/>
-      <c r="OS15" s="19"/>
-      <c r="OT15" s="19"/>
-      <c r="PK15" s="19"/>
-      <c r="PL15" s="19"/>
-      <c r="QM15" s="19"/>
-      <c r="QN15" s="19"/>
-      <c r="RA15" s="19"/>
-      <c r="RB15" s="19"/>
-      <c r="RC15" s="19"/>
-      <c r="RD15" s="19"/>
-      <c r="RE15" s="19"/>
-      <c r="RF15" s="19"/>
-      <c r="RG15" s="19"/>
-      <c r="RH15" s="19"/>
-      <c r="RI15" s="19"/>
-      <c r="RJ15" s="19"/>
-      <c r="RK15" s="19"/>
-      <c r="RL15" s="19"/>
-      <c r="RM15" s="19"/>
-      <c r="RN15" s="19"/>
-      <c r="RO15" s="19"/>
-      <c r="RP15" s="19"/>
-      <c r="RQ15" s="19"/>
-      <c r="RR15" s="19"/>
-      <c r="RS15" s="19"/>
-      <c r="RT15" s="19"/>
-      <c r="RU15" s="19"/>
-      <c r="RV15" s="19"/>
-      <c r="RW15" s="19"/>
-      <c r="RX15" s="19"/>
-      <c r="RY15" s="19"/>
-      <c r="RZ15" s="19"/>
-      <c r="SA15" s="19"/>
-      <c r="SB15" s="19"/>
-      <c r="SC15" s="19"/>
-      <c r="SD15" s="19"/>
+      <c r="A15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="BW15" s="20"/>
+      <c r="BX15" s="20"/>
+      <c r="BY15" s="20"/>
+      <c r="EV15" s="20"/>
+      <c r="EW15" s="20"/>
+      <c r="GC15" s="20"/>
+      <c r="GD15" s="20"/>
+      <c r="GR15" s="21"/>
+      <c r="IP15" s="20"/>
+      <c r="IQ15" s="20"/>
+      <c r="JN15" s="20"/>
+      <c r="JO15" s="20"/>
+      <c r="LA15" s="20"/>
+      <c r="LB15" s="20"/>
+      <c r="MQ15" s="20"/>
+      <c r="MR15" s="20"/>
+      <c r="MS15" s="20"/>
+      <c r="NP15" s="20"/>
+      <c r="NS15" s="20"/>
+      <c r="NT15" s="20"/>
+      <c r="OR15" s="20"/>
+      <c r="OS15" s="20"/>
+      <c r="PJ15" s="20"/>
+      <c r="PK15" s="20"/>
+      <c r="QL15" s="20"/>
+      <c r="QM15" s="20"/>
+      <c r="QZ15" s="20"/>
+      <c r="RA15" s="20"/>
+      <c r="RB15" s="20"/>
+      <c r="RC15" s="20"/>
+      <c r="RD15" s="20"/>
+      <c r="RE15" s="20"/>
+      <c r="RF15" s="20"/>
+      <c r="RG15" s="20"/>
+      <c r="RH15" s="20"/>
+      <c r="RI15" s="20"/>
+      <c r="RJ15" s="20"/>
+      <c r="RK15" s="20"/>
+      <c r="RL15" s="20"/>
+      <c r="RM15" s="20"/>
+      <c r="RN15" s="20"/>
+      <c r="RO15" s="20"/>
+      <c r="RP15" s="20"/>
+      <c r="RQ15" s="20"/>
+      <c r="RR15" s="20"/>
+      <c r="RS15" s="20"/>
+      <c r="RT15" s="20"/>
+      <c r="RU15" s="20"/>
+      <c r="RV15" s="20"/>
+      <c r="RW15" s="20"/>
+      <c r="RX15" s="20"/>
+      <c r="RY15" s="20"/>
+      <c r="RZ15" s="20"/>
+      <c r="SA15" s="20"/>
+      <c r="SB15" s="20"/>
+      <c r="SC15" s="20"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="BW16" s="19"/>
-      <c r="BX16" s="19"/>
-      <c r="BY16" s="19"/>
-      <c r="EV16" s="19"/>
-      <c r="EW16" s="19"/>
-      <c r="GC16" s="19"/>
-      <c r="GD16" s="19"/>
-      <c r="GQ16" s="20"/>
-      <c r="GR16" s="20"/>
-      <c r="IQ16" s="19"/>
-      <c r="IR16" s="19"/>
-      <c r="JO16" s="19"/>
-      <c r="JP16" s="19"/>
-      <c r="LB16" s="19"/>
-      <c r="LC16" s="19"/>
-      <c r="MR16" s="19"/>
-      <c r="MS16" s="19"/>
-      <c r="MT16" s="19"/>
-      <c r="NQ16" s="19"/>
-      <c r="NT16" s="19"/>
-      <c r="NU16" s="19"/>
-      <c r="OS16" s="19"/>
-      <c r="OT16" s="19"/>
-      <c r="PK16" s="19"/>
-      <c r="PL16" s="19"/>
-      <c r="RA16" s="19"/>
-      <c r="RB16" s="19"/>
-      <c r="RC16" s="19"/>
-      <c r="RD16" s="19"/>
-      <c r="RE16" s="19"/>
-      <c r="RF16" s="19"/>
-      <c r="RG16" s="19"/>
-      <c r="RH16" s="19"/>
-      <c r="RI16" s="19"/>
-      <c r="RJ16" s="19"/>
-      <c r="RK16" s="19"/>
-      <c r="RL16" s="19"/>
-      <c r="RM16" s="19"/>
-      <c r="RN16" s="19"/>
-      <c r="RO16" s="19"/>
-      <c r="RP16" s="19"/>
-      <c r="RQ16" s="19"/>
-      <c r="RR16" s="19"/>
-      <c r="RS16" s="19"/>
-      <c r="RT16" s="19"/>
-      <c r="RU16" s="19"/>
-      <c r="RV16" s="19"/>
-      <c r="RW16" s="19"/>
-      <c r="RX16" s="19"/>
-      <c r="RY16" s="19"/>
-      <c r="RZ16" s="19"/>
-      <c r="SA16" s="19"/>
-      <c r="SB16" s="19"/>
-      <c r="SC16" s="19"/>
-      <c r="SD16" s="19"/>
+      <c r="A16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="AW16" s="20"/>
+      <c r="BW16" s="20"/>
+      <c r="BX16" s="20"/>
+      <c r="BY16" s="20"/>
+      <c r="EV16" s="20"/>
+      <c r="EW16" s="20"/>
+      <c r="GC16" s="20"/>
+      <c r="GD16" s="20"/>
+      <c r="GR16" s="21"/>
+      <c r="IP16" s="20"/>
+      <c r="IQ16" s="20"/>
+      <c r="JN16" s="20"/>
+      <c r="JO16" s="20"/>
+      <c r="LA16" s="20"/>
+      <c r="LB16" s="20"/>
+      <c r="MQ16" s="20"/>
+      <c r="MR16" s="20"/>
+      <c r="MS16" s="20"/>
+      <c r="NP16" s="20"/>
+      <c r="NS16" s="20"/>
+      <c r="NT16" s="20"/>
+      <c r="OR16" s="20"/>
+      <c r="OS16" s="20"/>
+      <c r="PJ16" s="20"/>
+      <c r="PK16" s="20"/>
+      <c r="QZ16" s="20"/>
+      <c r="RA16" s="20"/>
+      <c r="RB16" s="20"/>
+      <c r="RC16" s="20"/>
+      <c r="RD16" s="20"/>
+      <c r="RE16" s="20"/>
+      <c r="RF16" s="20"/>
+      <c r="RG16" s="20"/>
+      <c r="RH16" s="20"/>
+      <c r="RI16" s="20"/>
+      <c r="RJ16" s="20"/>
+      <c r="RK16" s="20"/>
+      <c r="RL16" s="20"/>
+      <c r="RM16" s="20"/>
+      <c r="RN16" s="20"/>
+      <c r="RO16" s="20"/>
+      <c r="RP16" s="20"/>
+      <c r="RQ16" s="20"/>
+      <c r="RR16" s="20"/>
+      <c r="RS16" s="20"/>
+      <c r="RT16" s="20"/>
+      <c r="RU16" s="20"/>
+      <c r="RV16" s="20"/>
+      <c r="RW16" s="20"/>
+      <c r="RX16" s="20"/>
+      <c r="RY16" s="20"/>
+      <c r="RZ16" s="20"/>
+      <c r="SA16" s="20"/>
+      <c r="SB16" s="20"/>
+      <c r="SC16" s="20"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="BW17" s="19"/>
-      <c r="BX17" s="19"/>
-      <c r="BY17" s="19"/>
-      <c r="EV17" s="19"/>
-      <c r="EW17" s="19"/>
-      <c r="GQ17" s="20"/>
-      <c r="GR17" s="20"/>
-      <c r="IQ17" s="19"/>
-      <c r="IR17" s="19"/>
-      <c r="JO17" s="19"/>
-      <c r="JP17" s="19"/>
-      <c r="LB17" s="19"/>
-      <c r="LC17" s="19"/>
-      <c r="MR17" s="19"/>
-      <c r="MS17" s="19"/>
-      <c r="MT17" s="19"/>
-      <c r="NQ17" s="19"/>
-      <c r="NT17" s="19"/>
-      <c r="NU17" s="19"/>
-      <c r="OS17" s="19"/>
-      <c r="OT17" s="19"/>
-      <c r="PK17" s="19"/>
-      <c r="PL17" s="19"/>
-      <c r="RA17" s="19"/>
-      <c r="RB17" s="19"/>
-      <c r="RC17" s="19"/>
-      <c r="RD17" s="19"/>
-      <c r="RE17" s="19"/>
-      <c r="RF17" s="19"/>
-      <c r="RG17" s="19"/>
-      <c r="RH17" s="19"/>
-      <c r="RI17" s="19"/>
-      <c r="RJ17" s="19"/>
-      <c r="RK17" s="19"/>
-      <c r="RL17" s="19"/>
-      <c r="RM17" s="19"/>
-      <c r="RN17" s="19"/>
-      <c r="RO17" s="19"/>
-      <c r="RP17" s="19"/>
-      <c r="RQ17" s="19"/>
-      <c r="RR17" s="19"/>
-      <c r="RS17" s="19"/>
-      <c r="RT17" s="19"/>
-      <c r="RU17" s="19"/>
-      <c r="RV17" s="19"/>
-      <c r="RW17" s="19"/>
-      <c r="RX17" s="19"/>
-      <c r="RY17" s="19"/>
-      <c r="RZ17" s="19"/>
-      <c r="SA17" s="19"/>
-      <c r="SB17" s="19"/>
-      <c r="SC17" s="19"/>
-      <c r="SD17" s="19"/>
+      <c r="A17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="BW17" s="20"/>
+      <c r="BX17" s="20"/>
+      <c r="BY17" s="20"/>
+      <c r="EV17" s="20"/>
+      <c r="EW17" s="20"/>
+      <c r="GR17" s="21"/>
+      <c r="IP17" s="20"/>
+      <c r="IQ17" s="20"/>
+      <c r="JN17" s="20"/>
+      <c r="JO17" s="20"/>
+      <c r="LA17" s="20"/>
+      <c r="LB17" s="20"/>
+      <c r="MQ17" s="20"/>
+      <c r="MR17" s="20"/>
+      <c r="MS17" s="20"/>
+      <c r="NP17" s="20"/>
+      <c r="NS17" s="20"/>
+      <c r="NT17" s="20"/>
+      <c r="OR17" s="20"/>
+      <c r="OS17" s="20"/>
+      <c r="PJ17" s="20"/>
+      <c r="PK17" s="20"/>
+      <c r="QZ17" s="20"/>
+      <c r="RA17" s="20"/>
+      <c r="RB17" s="20"/>
+      <c r="RC17" s="20"/>
+      <c r="RD17" s="20"/>
+      <c r="RE17" s="20"/>
+      <c r="RF17" s="20"/>
+      <c r="RG17" s="20"/>
+      <c r="RH17" s="20"/>
+      <c r="RI17" s="20"/>
+      <c r="RJ17" s="20"/>
+      <c r="RK17" s="20"/>
+      <c r="RL17" s="20"/>
+      <c r="RM17" s="20"/>
+      <c r="RN17" s="20"/>
+      <c r="RO17" s="20"/>
+      <c r="RP17" s="20"/>
+      <c r="RQ17" s="20"/>
+      <c r="RR17" s="20"/>
+      <c r="RS17" s="20"/>
+      <c r="RT17" s="20"/>
+      <c r="RU17" s="20"/>
+      <c r="RV17" s="20"/>
+      <c r="RW17" s="20"/>
+      <c r="RX17" s="20"/>
+      <c r="RY17" s="20"/>
+      <c r="RZ17" s="20"/>
+      <c r="SA17" s="20"/>
+      <c r="SB17" s="20"/>
+      <c r="SC17" s="20"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="BW18" s="19"/>
-      <c r="BX18" s="19"/>
-      <c r="BY18" s="19"/>
-      <c r="EV18" s="19"/>
-      <c r="EW18" s="19"/>
-      <c r="GQ18" s="20"/>
-      <c r="GR18" s="20"/>
-      <c r="IQ18" s="19"/>
-      <c r="IR18" s="19"/>
-      <c r="JO18" s="19"/>
-      <c r="JP18" s="19"/>
-      <c r="LB18" s="19"/>
-      <c r="LC18" s="19"/>
-      <c r="MR18" s="19"/>
-      <c r="MS18" s="19"/>
-      <c r="MT18" s="19"/>
-      <c r="NQ18" s="19"/>
-      <c r="NT18" s="19"/>
-      <c r="NU18" s="19"/>
-      <c r="OS18" s="19"/>
-      <c r="OT18" s="19"/>
-      <c r="PK18" s="19"/>
-      <c r="PL18" s="19"/>
-      <c r="RA18" s="19"/>
-      <c r="RB18" s="19"/>
-      <c r="RC18" s="19"/>
-      <c r="RD18" s="19"/>
-      <c r="RE18" s="19"/>
-      <c r="RF18" s="19"/>
-      <c r="RG18" s="19"/>
-      <c r="RH18" s="19"/>
-      <c r="RI18" s="19"/>
-      <c r="RJ18" s="19"/>
-      <c r="RK18" s="19"/>
-      <c r="RL18" s="19"/>
-      <c r="RM18" s="19"/>
-      <c r="RN18" s="19"/>
-      <c r="RO18" s="19"/>
-      <c r="RP18" s="19"/>
-      <c r="RQ18" s="19"/>
-      <c r="RR18" s="19"/>
-      <c r="RS18" s="19"/>
-      <c r="RT18" s="19"/>
-      <c r="RU18" s="19"/>
-      <c r="RV18" s="19"/>
-      <c r="RW18" s="19"/>
-      <c r="RX18" s="19"/>
-      <c r="RY18" s="19"/>
-      <c r="RZ18" s="19"/>
-      <c r="SA18" s="19"/>
-      <c r="SB18" s="19"/>
-      <c r="SC18" s="19"/>
-      <c r="SD18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="BW18" s="20"/>
+      <c r="BX18" s="20"/>
+      <c r="BY18" s="20"/>
+      <c r="EV18" s="20"/>
+      <c r="EW18" s="20"/>
+      <c r="GR18" s="21"/>
+      <c r="IP18" s="20"/>
+      <c r="IQ18" s="20"/>
+      <c r="JN18" s="20"/>
+      <c r="JO18" s="20"/>
+      <c r="LA18" s="20"/>
+      <c r="LB18" s="20"/>
+      <c r="MQ18" s="20"/>
+      <c r="MR18" s="20"/>
+      <c r="MS18" s="20"/>
+      <c r="NP18" s="20"/>
+      <c r="NS18" s="20"/>
+      <c r="NT18" s="20"/>
+      <c r="OR18" s="20"/>
+      <c r="OS18" s="20"/>
+      <c r="PJ18" s="20"/>
+      <c r="PK18" s="20"/>
+      <c r="QZ18" s="20"/>
+      <c r="RA18" s="20"/>
+      <c r="RB18" s="20"/>
+      <c r="RC18" s="20"/>
+      <c r="RD18" s="20"/>
+      <c r="RE18" s="20"/>
+      <c r="RF18" s="20"/>
+      <c r="RG18" s="20"/>
+      <c r="RH18" s="20"/>
+      <c r="RI18" s="20"/>
+      <c r="RJ18" s="20"/>
+      <c r="RK18" s="20"/>
+      <c r="RL18" s="20"/>
+      <c r="RM18" s="20"/>
+      <c r="RN18" s="20"/>
+      <c r="RO18" s="20"/>
+      <c r="RP18" s="20"/>
+      <c r="RQ18" s="20"/>
+      <c r="RR18" s="20"/>
+      <c r="RS18" s="20"/>
+      <c r="RT18" s="20"/>
+      <c r="RU18" s="20"/>
+      <c r="RV18" s="20"/>
+      <c r="RW18" s="20"/>
+      <c r="RX18" s="20"/>
+      <c r="RY18" s="20"/>
+      <c r="RZ18" s="20"/>
+      <c r="SA18" s="20"/>
+      <c r="SB18" s="20"/>
+      <c r="SC18" s="20"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="BW19" s="19"/>
-      <c r="BX19" s="19"/>
-      <c r="BY19" s="19"/>
-      <c r="EV19" s="19"/>
-      <c r="EW19" s="19"/>
-      <c r="GQ19" s="19"/>
-      <c r="GR19" s="19"/>
-      <c r="IQ19" s="19"/>
-      <c r="IR19" s="19"/>
-      <c r="JO19" s="19"/>
-      <c r="JP19" s="19"/>
-      <c r="LB19" s="19"/>
-      <c r="LC19" s="19"/>
-      <c r="MR19" s="19"/>
-      <c r="MS19" s="19"/>
-      <c r="MT19" s="19"/>
-      <c r="NQ19" s="19"/>
-      <c r="NT19" s="19"/>
-      <c r="NU19" s="19"/>
-      <c r="OS19" s="19"/>
-      <c r="OT19" s="19"/>
-      <c r="PK19" s="19"/>
-      <c r="PL19" s="19"/>
-      <c r="RA19" s="19"/>
-      <c r="RB19" s="19"/>
-      <c r="RC19" s="19"/>
-      <c r="RD19" s="19"/>
-      <c r="RE19" s="19"/>
-      <c r="RF19" s="19"/>
-      <c r="RG19" s="19"/>
-      <c r="RH19" s="19"/>
-      <c r="RI19" s="19"/>
-      <c r="RJ19" s="19"/>
-      <c r="RK19" s="19"/>
-      <c r="RL19" s="19"/>
-      <c r="RM19" s="19"/>
-      <c r="RN19" s="19"/>
-      <c r="RO19" s="19"/>
-      <c r="RP19" s="19"/>
-      <c r="RQ19" s="19"/>
-      <c r="RR19" s="19"/>
-      <c r="RS19" s="19"/>
-      <c r="RT19" s="19"/>
-      <c r="RU19" s="19"/>
-      <c r="RV19" s="19"/>
-      <c r="RW19" s="19"/>
-      <c r="RX19" s="19"/>
-      <c r="RY19" s="19"/>
-      <c r="RZ19" s="19"/>
-      <c r="SA19" s="19"/>
-      <c r="SB19" s="19"/>
-      <c r="SC19" s="19"/>
-      <c r="SD19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="BW19" s="20"/>
+      <c r="BX19" s="20"/>
+      <c r="BY19" s="20"/>
+      <c r="EV19" s="20"/>
+      <c r="EW19" s="20"/>
+      <c r="GR19" s="20"/>
+      <c r="IP19" s="20"/>
+      <c r="IQ19" s="20"/>
+      <c r="JN19" s="20"/>
+      <c r="JO19" s="20"/>
+      <c r="LA19" s="20"/>
+      <c r="LB19" s="20"/>
+      <c r="MQ19" s="20"/>
+      <c r="MR19" s="20"/>
+      <c r="MS19" s="20"/>
+      <c r="NP19" s="20"/>
+      <c r="NS19" s="20"/>
+      <c r="NT19" s="20"/>
+      <c r="OR19" s="20"/>
+      <c r="OS19" s="20"/>
+      <c r="PJ19" s="20"/>
+      <c r="PK19" s="20"/>
+      <c r="QZ19" s="20"/>
+      <c r="RA19" s="20"/>
+      <c r="RB19" s="20"/>
+      <c r="RC19" s="20"/>
+      <c r="RD19" s="20"/>
+      <c r="RE19" s="20"/>
+      <c r="RF19" s="20"/>
+      <c r="RG19" s="20"/>
+      <c r="RH19" s="20"/>
+      <c r="RI19" s="20"/>
+      <c r="RJ19" s="20"/>
+      <c r="RK19" s="20"/>
+      <c r="RL19" s="20"/>
+      <c r="RM19" s="20"/>
+      <c r="RN19" s="20"/>
+      <c r="RO19" s="20"/>
+      <c r="RP19" s="20"/>
+      <c r="RQ19" s="20"/>
+      <c r="RR19" s="20"/>
+      <c r="RS19" s="20"/>
+      <c r="RT19" s="20"/>
+      <c r="RU19" s="20"/>
+      <c r="RV19" s="20"/>
+      <c r="RW19" s="20"/>
+      <c r="RX19" s="20"/>
+      <c r="RY19" s="20"/>
+      <c r="RZ19" s="20"/>
+      <c r="SA19" s="20"/>
+      <c r="SB19" s="20"/>
+      <c r="SC19" s="20"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="BW20" s="19"/>
-      <c r="BX20" s="19"/>
-      <c r="BY20" s="19"/>
-      <c r="EV20" s="19"/>
-      <c r="EW20" s="19"/>
-      <c r="GQ20" s="19"/>
-      <c r="GR20" s="19"/>
-      <c r="IQ20" s="19"/>
-      <c r="IR20" s="19"/>
-      <c r="JO20" s="19"/>
-      <c r="JP20" s="19"/>
-      <c r="LB20" s="19"/>
-      <c r="LC20" s="19"/>
-      <c r="NQ20" s="19"/>
-      <c r="NT20" s="19"/>
-      <c r="NU20" s="19"/>
-      <c r="OS20" s="19"/>
-      <c r="OT20" s="19"/>
-      <c r="PK20" s="19"/>
-      <c r="PL20" s="19"/>
-      <c r="RA20" s="19"/>
-      <c r="RB20" s="19"/>
-      <c r="RC20" s="19"/>
-      <c r="RD20" s="19"/>
-      <c r="RE20" s="19"/>
-      <c r="RF20" s="19"/>
-      <c r="RG20" s="19"/>
-      <c r="RH20" s="19"/>
-      <c r="RI20" s="19"/>
-      <c r="RJ20" s="19"/>
-      <c r="RK20" s="19"/>
-      <c r="RL20" s="19"/>
-      <c r="RM20" s="19"/>
-      <c r="RN20" s="19"/>
-      <c r="RO20" s="19"/>
-      <c r="RP20" s="19"/>
-      <c r="RQ20" s="19"/>
-      <c r="RR20" s="19"/>
-      <c r="RS20" s="19"/>
-      <c r="RT20" s="19"/>
-      <c r="RU20" s="19"/>
-      <c r="RV20" s="19"/>
-      <c r="RW20" s="19"/>
-      <c r="RX20" s="19"/>
-      <c r="RY20" s="19"/>
-      <c r="RZ20" s="19"/>
-      <c r="SA20" s="19"/>
-      <c r="SB20" s="19"/>
-      <c r="SC20" s="19"/>
-      <c r="SD20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="BW20" s="20"/>
+      <c r="BX20" s="20"/>
+      <c r="BY20" s="20"/>
+      <c r="EV20" s="20"/>
+      <c r="EW20" s="20"/>
+      <c r="GR20" s="20"/>
+      <c r="IP20" s="20"/>
+      <c r="IQ20" s="20"/>
+      <c r="JN20" s="20"/>
+      <c r="JO20" s="20"/>
+      <c r="LA20" s="20"/>
+      <c r="LB20" s="20"/>
+      <c r="NP20" s="20"/>
+      <c r="NS20" s="20"/>
+      <c r="NT20" s="20"/>
+      <c r="OR20" s="20"/>
+      <c r="OS20" s="20"/>
+      <c r="PJ20" s="20"/>
+      <c r="PK20" s="20"/>
+      <c r="QZ20" s="20"/>
+      <c r="RA20" s="20"/>
+      <c r="RB20" s="20"/>
+      <c r="RC20" s="20"/>
+      <c r="RD20" s="20"/>
+      <c r="RE20" s="20"/>
+      <c r="RF20" s="20"/>
+      <c r="RG20" s="20"/>
+      <c r="RH20" s="20"/>
+      <c r="RI20" s="20"/>
+      <c r="RJ20" s="20"/>
+      <c r="RK20" s="20"/>
+      <c r="RL20" s="20"/>
+      <c r="RM20" s="20"/>
+      <c r="RN20" s="20"/>
+      <c r="RO20" s="20"/>
+      <c r="RP20" s="20"/>
+      <c r="RQ20" s="20"/>
+      <c r="RR20" s="20"/>
+      <c r="RS20" s="20"/>
+      <c r="RT20" s="20"/>
+      <c r="RU20" s="20"/>
+      <c r="RV20" s="20"/>
+      <c r="RW20" s="20"/>
+      <c r="RX20" s="20"/>
+      <c r="RY20" s="20"/>
+      <c r="RZ20" s="20"/>
+      <c r="SA20" s="20"/>
+      <c r="SB20" s="20"/>
+      <c r="SC20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="BW21" s="19"/>
-      <c r="BX21" s="19"/>
-      <c r="BY21" s="19"/>
-      <c r="EV21" s="19"/>
-      <c r="EW21" s="19"/>
-      <c r="GQ21" s="19"/>
-      <c r="GR21" s="19"/>
-      <c r="IQ21" s="19"/>
-      <c r="IR21" s="19"/>
-      <c r="JO21" s="19"/>
-      <c r="JP21" s="19"/>
-      <c r="LB21" s="19"/>
-      <c r="LC21" s="19"/>
-      <c r="NQ21" s="19"/>
-      <c r="NT21" s="19"/>
-      <c r="NU21" s="19"/>
-      <c r="PK21" s="19"/>
-      <c r="PL21" s="19"/>
+      <c r="A21" s="20"/>
+      <c r="BW21" s="20"/>
+      <c r="BX21" s="20"/>
+      <c r="BY21" s="20"/>
+      <c r="EV21" s="20"/>
+      <c r="EW21" s="20"/>
+      <c r="GR21" s="20"/>
+      <c r="IP21" s="20"/>
+      <c r="IQ21" s="20"/>
+      <c r="JN21" s="20"/>
+      <c r="JO21" s="20"/>
+      <c r="LA21" s="20"/>
+      <c r="LB21" s="20"/>
+      <c r="NP21" s="20"/>
+      <c r="NS21" s="20"/>
+      <c r="NT21" s="20"/>
+      <c r="PJ21" s="20"/>
+      <c r="PK21" s="20"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="BW22" s="19"/>
-      <c r="BX22" s="19"/>
-      <c r="BY22" s="19"/>
-      <c r="EV22" s="19"/>
-      <c r="EW22" s="19"/>
-      <c r="GQ22" s="19"/>
-      <c r="GR22" s="19"/>
-      <c r="IQ22" s="19"/>
-      <c r="IR22" s="19"/>
-      <c r="JO22" s="19"/>
-      <c r="JP22" s="19"/>
-      <c r="LB22" s="19"/>
-      <c r="LC22" s="19"/>
-      <c r="NQ22" s="19"/>
-      <c r="NT22" s="19"/>
-      <c r="NU22" s="19"/>
-      <c r="PK22" s="19"/>
-      <c r="PL22" s="19"/>
+      <c r="A22" s="20"/>
+      <c r="BW22" s="20"/>
+      <c r="BX22" s="20"/>
+      <c r="BY22" s="20"/>
+      <c r="EV22" s="20"/>
+      <c r="EW22" s="20"/>
+      <c r="GR22" s="20"/>
+      <c r="IP22" s="20"/>
+      <c r="IQ22" s="20"/>
+      <c r="JN22" s="20"/>
+      <c r="JO22" s="20"/>
+      <c r="LA22" s="20"/>
+      <c r="LB22" s="20"/>
+      <c r="NP22" s="20"/>
+      <c r="NS22" s="20"/>
+      <c r="NT22" s="20"/>
+      <c r="PJ22" s="20"/>
+      <c r="PK22" s="20"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="BW23" s="19"/>
-      <c r="BX23" s="19"/>
-      <c r="BY23" s="19"/>
-      <c r="EV23" s="19"/>
-      <c r="EW23" s="19"/>
-      <c r="GQ23" s="19"/>
-      <c r="GR23" s="19"/>
-      <c r="IQ23" s="19"/>
-      <c r="IR23" s="19"/>
-      <c r="JO23" s="19"/>
-      <c r="JP23" s="19"/>
-      <c r="LB23" s="19"/>
-      <c r="LC23" s="19"/>
-      <c r="NQ23" s="19"/>
-      <c r="NT23" s="19"/>
-      <c r="NU23" s="19"/>
-      <c r="PK23" s="19"/>
-      <c r="PL23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="BW23" s="20"/>
+      <c r="BX23" s="20"/>
+      <c r="BY23" s="20"/>
+      <c r="EV23" s="20"/>
+      <c r="EW23" s="20"/>
+      <c r="GR23" s="20"/>
+      <c r="IP23" s="20"/>
+      <c r="IQ23" s="20"/>
+      <c r="JN23" s="20"/>
+      <c r="JO23" s="20"/>
+      <c r="LA23" s="20"/>
+      <c r="LB23" s="20"/>
+      <c r="NP23" s="20"/>
+      <c r="NS23" s="20"/>
+      <c r="NT23" s="20"/>
+      <c r="PJ23" s="20"/>
+      <c r="PK23" s="20"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="BW24" s="19"/>
-      <c r="BX24" s="19"/>
-      <c r="BY24" s="19"/>
-      <c r="EV24" s="19"/>
-      <c r="EW24" s="19"/>
-      <c r="GQ24" s="19"/>
-      <c r="GR24" s="19"/>
-      <c r="IQ24" s="19"/>
-      <c r="IR24" s="19"/>
-      <c r="JO24" s="21"/>
-      <c r="JP24" s="21"/>
-      <c r="LB24" s="19"/>
-      <c r="LC24" s="19"/>
-      <c r="NQ24" s="19"/>
-      <c r="NT24" s="19"/>
-      <c r="NU24" s="19"/>
-      <c r="PK24" s="19"/>
-      <c r="PL24" s="19"/>
+      <c r="BW24" s="20"/>
+      <c r="BX24" s="20"/>
+      <c r="BY24" s="20"/>
+      <c r="EV24" s="20"/>
+      <c r="EW24" s="20"/>
+      <c r="GR24" s="20"/>
+      <c r="IP24" s="20"/>
+      <c r="IQ24" s="20"/>
+      <c r="JN24" s="22"/>
+      <c r="JO24" s="22"/>
+      <c r="LA24" s="20"/>
+      <c r="LB24" s="20"/>
+      <c r="NP24" s="20"/>
+      <c r="NS24" s="20"/>
+      <c r="NT24" s="20"/>
+      <c r="PJ24" s="20"/>
+      <c r="PK24" s="20"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="BW25" s="19"/>
-      <c r="BX25" s="19"/>
-      <c r="BY25" s="19"/>
-      <c r="EV25" s="19"/>
-      <c r="EW25" s="19"/>
-      <c r="GQ25" s="19"/>
-      <c r="GR25" s="19"/>
-      <c r="IQ25" s="19"/>
-      <c r="IR25" s="19"/>
-      <c r="JO25" s="21"/>
-      <c r="JP25" s="21"/>
-      <c r="LB25" s="19"/>
-      <c r="LC25" s="19"/>
-      <c r="NQ25" s="19"/>
-      <c r="NT25" s="19"/>
-      <c r="NU25" s="19"/>
-      <c r="PK25" s="19"/>
-      <c r="PL25" s="19"/>
+      <c r="BW25" s="20"/>
+      <c r="BX25" s="20"/>
+      <c r="BY25" s="20"/>
+      <c r="EV25" s="20"/>
+      <c r="EW25" s="20"/>
+      <c r="GR25" s="20"/>
+      <c r="IP25" s="20"/>
+      <c r="IQ25" s="20"/>
+      <c r="JN25" s="22"/>
+      <c r="JO25" s="22"/>
+      <c r="LA25" s="20"/>
+      <c r="LB25" s="20"/>
+      <c r="NP25" s="20"/>
+      <c r="NS25" s="20"/>
+      <c r="NT25" s="20"/>
+      <c r="PJ25" s="20"/>
+      <c r="PK25" s="20"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="BW26" s="19"/>
-      <c r="BX26" s="19"/>
-      <c r="BY26" s="19"/>
-      <c r="EV26" s="19"/>
-      <c r="EW26" s="19"/>
-      <c r="GQ26" s="19"/>
-      <c r="GR26" s="19"/>
-      <c r="IQ26" s="19"/>
-      <c r="IR26" s="19"/>
-      <c r="JO26" s="19"/>
-      <c r="JP26" s="19"/>
-      <c r="LB26" s="19"/>
-      <c r="LC26" s="19"/>
-      <c r="NT26" s="19"/>
-      <c r="NU26" s="19"/>
-      <c r="PK26" s="19"/>
-      <c r="PL26" s="19"/>
+      <c r="BW26" s="20"/>
+      <c r="BX26" s="20"/>
+      <c r="BY26" s="20"/>
+      <c r="EV26" s="20"/>
+      <c r="EW26" s="20"/>
+      <c r="GR26" s="20"/>
+      <c r="IP26" s="20"/>
+      <c r="IQ26" s="20"/>
+      <c r="JN26" s="20"/>
+      <c r="JO26" s="20"/>
+      <c r="LA26" s="20"/>
+      <c r="LB26" s="20"/>
+      <c r="NS26" s="20"/>
+      <c r="NT26" s="20"/>
+      <c r="PJ26" s="20"/>
+      <c r="PK26" s="20"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="BW27" s="19"/>
-      <c r="BX27" s="19"/>
-      <c r="BY27" s="19"/>
-      <c r="EV27" s="19"/>
-      <c r="EW27" s="19"/>
-      <c r="GQ27" s="19"/>
-      <c r="GR27" s="19"/>
-      <c r="JO27" s="21"/>
-      <c r="JP27" s="21"/>
-      <c r="LB27" s="19"/>
-      <c r="LC27" s="19"/>
-      <c r="PK27" s="19"/>
-      <c r="PL27" s="19"/>
+      <c r="BW27" s="20"/>
+      <c r="BX27" s="20"/>
+      <c r="BY27" s="20"/>
+      <c r="EV27" s="20"/>
+      <c r="EW27" s="20"/>
+      <c r="GR27" s="20"/>
+      <c r="JN27" s="22"/>
+      <c r="JO27" s="22"/>
+      <c r="LA27" s="20"/>
+      <c r="LB27" s="20"/>
+      <c r="PJ27" s="20"/>
+      <c r="PK27" s="20"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="BW28" s="19"/>
-      <c r="BX28" s="19"/>
-      <c r="BY28" s="19"/>
-      <c r="EV28" s="19"/>
-      <c r="EW28" s="19"/>
-      <c r="GQ28" s="19"/>
-      <c r="GR28" s="19"/>
-      <c r="JO28" s="21"/>
-      <c r="JP28" s="21"/>
-      <c r="LB28" s="19"/>
-      <c r="LC28" s="19"/>
-      <c r="PK28" s="19"/>
-      <c r="PL28" s="19"/>
+      <c r="BW28" s="20"/>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="20"/>
+      <c r="EV28" s="20"/>
+      <c r="EW28" s="20"/>
+      <c r="GR28" s="20"/>
+      <c r="JN28" s="22"/>
+      <c r="JO28" s="22"/>
+      <c r="LA28" s="20"/>
+      <c r="LB28" s="20"/>
+      <c r="PJ28" s="20"/>
+      <c r="PK28" s="20"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="BW29" s="19"/>
-      <c r="BX29" s="19"/>
-      <c r="BY29" s="19"/>
-      <c r="EV29" s="19"/>
-      <c r="EW29" s="19"/>
-      <c r="GQ29" s="19"/>
-      <c r="GR29" s="19"/>
-      <c r="JO29" s="21"/>
-      <c r="JP29" s="21"/>
-      <c r="LB29" s="19"/>
-      <c r="LC29" s="19"/>
-      <c r="PK29" s="19"/>
-      <c r="PL29" s="19"/>
+      <c r="BW29" s="20"/>
+      <c r="BX29" s="20"/>
+      <c r="BY29" s="20"/>
+      <c r="EV29" s="20"/>
+      <c r="EW29" s="20"/>
+      <c r="GR29" s="20"/>
+      <c r="JN29" s="22"/>
+      <c r="JO29" s="22"/>
+      <c r="LA29" s="20"/>
+      <c r="LB29" s="20"/>
+      <c r="PJ29" s="20"/>
+      <c r="PK29" s="20"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="BW30" s="19"/>
-      <c r="BX30" s="19"/>
-      <c r="BY30" s="19"/>
-      <c r="EV30" s="19"/>
-      <c r="EW30" s="19"/>
-      <c r="GQ30" s="19"/>
-      <c r="GR30" s="19"/>
-      <c r="JO30" s="19"/>
-      <c r="JP30" s="19"/>
-      <c r="LB30" s="19"/>
-      <c r="LC30" s="19"/>
+      <c r="BW30" s="20"/>
+      <c r="BX30" s="20"/>
+      <c r="BY30" s="20"/>
+      <c r="EV30" s="20"/>
+      <c r="EW30" s="20"/>
+      <c r="GR30" s="20"/>
+      <c r="JN30" s="20"/>
+      <c r="JO30" s="20"/>
+      <c r="LA30" s="20"/>
+      <c r="LB30" s="20"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="BW31" s="19"/>
-      <c r="BX31" s="19"/>
-      <c r="BY31" s="19"/>
-      <c r="EV31" s="19"/>
-      <c r="EW31" s="19"/>
-      <c r="GQ31" s="19"/>
-      <c r="GR31" s="19"/>
-      <c r="JO31" s="19"/>
-      <c r="JP31" s="19"/>
-      <c r="LB31" s="19"/>
-      <c r="LC31" s="19"/>
+      <c r="BW31" s="20"/>
+      <c r="BX31" s="20"/>
+      <c r="BY31" s="20"/>
+      <c r="EV31" s="20"/>
+      <c r="EW31" s="20"/>
+      <c r="GR31" s="20"/>
+      <c r="JN31" s="20"/>
+      <c r="JO31" s="20"/>
+      <c r="LA31" s="20"/>
+      <c r="LB31" s="20"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="BW32" s="19"/>
-      <c r="BX32" s="19"/>
-      <c r="BY32" s="19"/>
-      <c r="GQ32" s="19"/>
-      <c r="GR32" s="19"/>
-      <c r="JO32" s="19"/>
-      <c r="JP32" s="19"/>
-      <c r="LB32" s="19"/>
-      <c r="LC32" s="19"/>
+      <c r="BW32" s="20"/>
+      <c r="BX32" s="20"/>
+      <c r="BY32" s="20"/>
+      <c r="GR32" s="20"/>
+      <c r="JN32" s="20"/>
+      <c r="JO32" s="20"/>
+      <c r="LA32" s="20"/>
+      <c r="LB32" s="20"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="BW33" s="19"/>
-      <c r="BX33" s="19"/>
-      <c r="BY33" s="19"/>
-      <c r="GQ33" s="19"/>
-      <c r="GR33" s="19"/>
-      <c r="JO33" s="19"/>
-      <c r="JP33" s="19"/>
-      <c r="LB33" s="19"/>
-      <c r="LC33" s="19"/>
+      <c r="BW33" s="20"/>
+      <c r="BX33" s="20"/>
+      <c r="BY33" s="20"/>
+      <c r="GR33" s="20"/>
+      <c r="JN33" s="20"/>
+      <c r="JO33" s="20"/>
+      <c r="LA33" s="20"/>
+      <c r="LB33" s="20"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="BW34" s="19"/>
-      <c r="BX34" s="19"/>
-      <c r="BY34" s="19"/>
-      <c r="GQ34" s="19"/>
-      <c r="GR34" s="19"/>
-      <c r="JO34" s="19"/>
-      <c r="JP34" s="19"/>
-      <c r="LB34" s="19"/>
-      <c r="LC34" s="19"/>
+      <c r="BW34" s="20"/>
+      <c r="BX34" s="20"/>
+      <c r="BY34" s="20"/>
+      <c r="GR34" s="20"/>
+      <c r="JN34" s="20"/>
+      <c r="JO34" s="20"/>
+      <c r="LA34" s="20"/>
+      <c r="LB34" s="20"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="BW35" s="19"/>
-      <c r="BX35" s="19"/>
-      <c r="BY35" s="19"/>
-      <c r="GQ35" s="19"/>
-      <c r="GR35" s="19"/>
-      <c r="JO35" s="19"/>
-      <c r="JP35" s="19"/>
-      <c r="LB35" s="19"/>
-      <c r="LC35" s="19"/>
+      <c r="BW35" s="20"/>
+      <c r="BX35" s="20"/>
+      <c r="BY35" s="20"/>
+      <c r="GR35" s="20"/>
+      <c r="JN35" s="20"/>
+      <c r="JO35" s="20"/>
+      <c r="LA35" s="20"/>
+      <c r="LB35" s="20"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="BW36" s="19"/>
-      <c r="BX36" s="19"/>
-      <c r="BY36" s="19"/>
-      <c r="GQ36" s="19"/>
-      <c r="GR36" s="19"/>
-      <c r="JO36" s="19"/>
-      <c r="JP36" s="19"/>
-      <c r="LB36" s="19"/>
-      <c r="LC36" s="19"/>
+      <c r="BW36" s="20"/>
+      <c r="BX36" s="20"/>
+      <c r="BY36" s="20"/>
+      <c r="GR36" s="20"/>
+      <c r="JN36" s="20"/>
+      <c r="JO36" s="20"/>
+      <c r="LA36" s="20"/>
+      <c r="LB36" s="20"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="BW37" s="19"/>
-      <c r="BX37" s="19"/>
-      <c r="BY37" s="19"/>
-      <c r="GQ37" s="19"/>
-      <c r="GR37" s="19"/>
-      <c r="JO37" s="19"/>
-      <c r="JP37" s="19"/>
-      <c r="LB37" s="19"/>
-      <c r="LC37" s="19"/>
+      <c r="BW37" s="20"/>
+      <c r="BX37" s="20"/>
+      <c r="BY37" s="20"/>
+      <c r="GR37" s="20"/>
+      <c r="JN37" s="20"/>
+      <c r="JO37" s="20"/>
+      <c r="LA37" s="20"/>
+      <c r="LB37" s="20"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="BW38" s="19"/>
-      <c r="BX38" s="19"/>
-      <c r="BY38" s="19"/>
-      <c r="GQ38" s="19"/>
-      <c r="GR38" s="19"/>
-      <c r="JO38" s="19"/>
-      <c r="JP38" s="19"/>
-      <c r="LB38" s="19"/>
-      <c r="LC38" s="19"/>
+      <c r="BW38" s="20"/>
+      <c r="BX38" s="20"/>
+      <c r="BY38" s="20"/>
+      <c r="GR38" s="20"/>
+      <c r="JN38" s="20"/>
+      <c r="JO38" s="20"/>
+      <c r="LA38" s="20"/>
+      <c r="LB38" s="20"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="BW39" s="19"/>
-      <c r="BX39" s="19"/>
-      <c r="BY39" s="19"/>
-      <c r="GQ39" s="19"/>
-      <c r="GR39" s="19"/>
-      <c r="JO39" s="19"/>
-      <c r="JP39" s="19"/>
-      <c r="LB39" s="19"/>
-      <c r="LC39" s="19"/>
+      <c r="BW39" s="20"/>
+      <c r="BX39" s="20"/>
+      <c r="BY39" s="20"/>
+      <c r="GR39" s="20"/>
+      <c r="JN39" s="20"/>
+      <c r="JO39" s="20"/>
+      <c r="LA39" s="20"/>
+      <c r="LB39" s="20"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="BW40" s="19"/>
-      <c r="BX40" s="19"/>
-      <c r="BY40" s="19"/>
-      <c r="GQ40" s="19"/>
-      <c r="GR40" s="19"/>
-      <c r="JO40" s="19"/>
-      <c r="JP40" s="19"/>
-      <c r="LB40" s="19"/>
-      <c r="LC40" s="19"/>
+      <c r="BW40" s="20"/>
+      <c r="BX40" s="20"/>
+      <c r="BY40" s="20"/>
+      <c r="GR40" s="20"/>
+      <c r="JN40" s="20"/>
+      <c r="JO40" s="20"/>
+      <c r="LA40" s="20"/>
+      <c r="LB40" s="20"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="BW41" s="21"/>
-      <c r="BX41" s="19"/>
-      <c r="BY41" s="19"/>
-      <c r="GQ41" s="19"/>
-      <c r="GR41" s="19"/>
-      <c r="LB41" s="19"/>
-      <c r="LC41" s="19"/>
+      <c r="BW41" s="22"/>
+      <c r="BX41" s="20"/>
+      <c r="BY41" s="20"/>
+      <c r="GR41" s="20"/>
+      <c r="LA41" s="20"/>
+      <c r="LB41" s="20"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="BW42" s="19"/>
-      <c r="BX42" s="19"/>
-      <c r="BY42" s="19"/>
-      <c r="GQ42" s="19"/>
-      <c r="GR42" s="19"/>
-      <c r="LB42" s="19"/>
-      <c r="LC42" s="19"/>
+      <c r="BW42" s="20"/>
+      <c r="BX42" s="20"/>
+      <c r="BY42" s="20"/>
+      <c r="GR42" s="20"/>
+      <c r="LA42" s="20"/>
+      <c r="LB42" s="20"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="BW43" s="19"/>
-      <c r="BX43" s="19"/>
-      <c r="BY43" s="19"/>
-      <c r="GQ43" s="19"/>
-      <c r="GR43" s="19"/>
+      <c r="BW43" s="20"/>
+      <c r="BX43" s="20"/>
+      <c r="BY43" s="20"/>
+      <c r="GR43" s="20"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="BW44" s="19"/>
-      <c r="BX44" s="19"/>
-      <c r="BY44" s="19"/>
-      <c r="GQ44" s="19"/>
-      <c r="GR44" s="19"/>
+      <c r="BW44" s="20"/>
+      <c r="BX44" s="20"/>
+      <c r="BY44" s="20"/>
+      <c r="GR44" s="20"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="BW45" s="19"/>
-      <c r="BX45" s="19"/>
-      <c r="BY45" s="19"/>
-      <c r="GQ45" s="19"/>
-      <c r="GR45" s="19"/>
+      <c r="BW45" s="20"/>
+      <c r="BX45" s="20"/>
+      <c r="BY45" s="20"/>
+      <c r="GR45" s="20"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="BW46" s="19"/>
-      <c r="BX46" s="19"/>
-      <c r="BY46" s="19"/>
-      <c r="GQ46" s="19"/>
-      <c r="GR46" s="19"/>
+      <c r="BW46" s="20"/>
+      <c r="BX46" s="20"/>
+      <c r="BY46" s="20"/>
+      <c r="GR46" s="20"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="BW47" s="19"/>
-      <c r="BX47" s="19"/>
-      <c r="BY47" s="19"/>
-      <c r="GQ47" s="19"/>
-      <c r="GR47" s="19"/>
+      <c r="BW47" s="20"/>
+      <c r="BX47" s="20"/>
+      <c r="BY47" s="20"/>
+      <c r="GR47" s="20"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="BW48" s="19"/>
-      <c r="BX48" s="19"/>
-      <c r="BY48" s="19"/>
-      <c r="GQ48" s="19"/>
-      <c r="GR48" s="19"/>
+      <c r="BW48" s="20"/>
+      <c r="BX48" s="20"/>
+      <c r="BY48" s="20"/>
+      <c r="GR48" s="20"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="BW49" s="19"/>
-      <c r="BX49" s="19"/>
-      <c r="BY49" s="19"/>
-      <c r="GQ49" s="19"/>
-      <c r="GR49" s="19"/>
+      <c r="BW49" s="20"/>
+      <c r="BX49" s="20"/>
+      <c r="BY49" s="20"/>
+      <c r="GR49" s="20"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="BW50" s="19"/>
-      <c r="BX50" s="19"/>
-      <c r="BY50" s="19"/>
-      <c r="GQ50" s="19"/>
-      <c r="GR50" s="19"/>
+      <c r="BW50" s="20"/>
+      <c r="BX50" s="20"/>
+      <c r="BY50" s="20"/>
+      <c r="GR50" s="20"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="BW51" s="19"/>
-      <c r="BX51" s="19"/>
-      <c r="BY51" s="19"/>
-      <c r="GQ51" s="19"/>
-      <c r="GR51" s="19"/>
+      <c r="BW51" s="20"/>
+      <c r="BX51" s="20"/>
+      <c r="BY51" s="20"/>
+      <c r="GR51" s="20"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="BW52" s="19"/>
-      <c r="BX52" s="19"/>
-      <c r="BY52" s="19"/>
-      <c r="GQ52" s="19"/>
-      <c r="GR52" s="19"/>
+      <c r="BW52" s="20"/>
+      <c r="BX52" s="20"/>
+      <c r="BY52" s="20"/>
+      <c r="GR52" s="20"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="BW53" s="19"/>
-      <c r="BX53" s="19"/>
-      <c r="BY53" s="19"/>
-      <c r="GQ53" s="19"/>
-      <c r="GR53" s="19"/>
+      <c r="BW53" s="20"/>
+      <c r="BX53" s="20"/>
+      <c r="BY53" s="20"/>
+      <c r="GR53" s="20"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="BW54" s="19"/>
-      <c r="BX54" s="19"/>
-      <c r="BY54" s="19"/>
-      <c r="GQ54" s="21"/>
-      <c r="GR54" s="21"/>
+      <c r="BW54" s="20"/>
+      <c r="BX54" s="20"/>
+      <c r="BY54" s="20"/>
+      <c r="GR54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="BW55" s="19"/>
-      <c r="BX55" s="19"/>
-      <c r="BY55" s="19"/>
+      <c r="BW55" s="20"/>
+      <c r="BX55" s="20"/>
+      <c r="BY55" s="20"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="BW56" s="19"/>
-      <c r="BX56" s="19"/>
-      <c r="BY56" s="19"/>
+      <c r="BW56" s="20"/>
+      <c r="BX56" s="20"/>
+      <c r="BY56" s="20"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="BW57" s="19"/>
-      <c r="BX57" s="19"/>
-      <c r="BY57" s="19"/>
+      <c r="BW57" s="20"/>
+      <c r="BX57" s="20"/>
+      <c r="BY57" s="20"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="BW58" s="19"/>
-      <c r="BX58" s="19"/>
-      <c r="BY58" s="19"/>
+      <c r="BW58" s="20"/>
+      <c r="BX58" s="20"/>
+      <c r="BY58" s="20"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="BW59" s="19"/>
-      <c r="BX59" s="19"/>
-      <c r="BY59" s="19"/>
+      <c r="BW59" s="20"/>
+      <c r="BX59" s="20"/>
+      <c r="BY59" s="20"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="BW60" s="19"/>
-      <c r="BX60" s="19"/>
-      <c r="BY60" s="19"/>
+      <c r="BW60" s="20"/>
+      <c r="BX60" s="20"/>
+      <c r="BY60" s="20"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="BW61" s="19"/>
-      <c r="BX61" s="19"/>
-      <c r="BY61" s="19"/>
+      <c r="BW61" s="20"/>
+      <c r="BX61" s="20"/>
+      <c r="BY61" s="20"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="BW62" s="19"/>
-      <c r="BX62" s="19"/>
-      <c r="BY62" s="19"/>
+      <c r="BW62" s="20"/>
+      <c r="BX62" s="20"/>
+      <c r="BY62" s="20"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="BW63" s="19"/>
-      <c r="BX63" s="19"/>
-      <c r="BY63" s="19"/>
+      <c r="BW63" s="20"/>
+      <c r="BX63" s="20"/>
+      <c r="BY63" s="20"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="BW64" s="19"/>
-      <c r="BX64" s="19"/>
-      <c r="BY64" s="19"/>
+      <c r="BW64" s="20"/>
+      <c r="BX64" s="20"/>
+      <c r="BY64" s="20"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="BW65" s="19"/>
-      <c r="BX65" s="19"/>
-      <c r="BY65" s="19"/>
+      <c r="BW65" s="20"/>
+      <c r="BX65" s="20"/>
+      <c r="BY65" s="20"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="BW66" s="19"/>
-      <c r="BX66" s="19"/>
-      <c r="BY66" s="19"/>
+      <c r="BW66" s="20"/>
+      <c r="BX66" s="20"/>
+      <c r="BY66" s="20"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="BW67" s="19"/>
-      <c r="BX67" s="19"/>
-      <c r="BY67" s="19"/>
+      <c r="BW67" s="20"/>
+      <c r="BX67" s="20"/>
+      <c r="BY67" s="20"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="BW68" s="19"/>
-      <c r="BX68" s="19"/>
-      <c r="BY68" s="19"/>
+      <c r="BW68" s="20"/>
+      <c r="BX68" s="20"/>
+      <c r="BY68" s="20"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="BW69" s="19"/>
-      <c r="BX69" s="19"/>
-      <c r="BY69" s="19"/>
+      <c r="BW69" s="20"/>
+      <c r="BX69" s="20"/>
+      <c r="BY69" s="20"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="BW70" s="19"/>
-      <c r="BX70" s="19"/>
-      <c r="BY70" s="19"/>
+      <c r="BW70" s="20"/>
+      <c r="BX70" s="20"/>
+      <c r="BY70" s="20"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="BW71" s="19"/>
-      <c r="BX71" s="19"/>
-      <c r="BY71" s="19"/>
+      <c r="BW71" s="20"/>
+      <c r="BX71" s="20"/>
+      <c r="BY71" s="20"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="BW72" s="19"/>
-      <c r="BX72" s="19"/>
-      <c r="BY72" s="19"/>
+      <c r="BW72" s="20"/>
+      <c r="BX72" s="20"/>
+      <c r="BY72" s="20"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="BW73" s="19"/>
-      <c r="BX73" s="19"/>
-      <c r="BY73" s="19"/>
+      <c r="BW73" s="20"/>
+      <c r="BX73" s="20"/>
+      <c r="BY73" s="20"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="BW74" s="19"/>
-      <c r="BX74" s="19"/>
-      <c r="BY74" s="19"/>
+      <c r="BW74" s="20"/>
+      <c r="BX74" s="20"/>
+      <c r="BY74" s="20"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="BW75" s="19"/>
-      <c r="BX75" s="19"/>
-      <c r="BY75" s="19"/>
+      <c r="BW75" s="20"/>
+      <c r="BX75" s="20"/>
+      <c r="BY75" s="20"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="BW76" s="19"/>
-      <c r="BX76" s="19"/>
-      <c r="BY76" s="19"/>
+      <c r="BW76" s="20"/>
+      <c r="BX76" s="20"/>
+      <c r="BY76" s="20"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="BW77" s="19"/>
-      <c r="BX77" s="19"/>
-      <c r="BY77" s="19"/>
+      <c r="BW77" s="20"/>
+      <c r="BX77" s="20"/>
+      <c r="BY77" s="20"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="BW78" s="19"/>
+      <c r="BW78" s="20"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="BW79" s="19"/>
+      <c r="BW79" s="20"/>
     </row>
     <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>

--- a/app/data/base_export.xlsx
+++ b/app/data/base_export.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhB1mJcL+w2UZ5mIBL9t9LCahdE0Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj7mT2Kz5T2SbrjYfhO5eeRTnBiLw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="485">
   <si>
     <t>Fecha de la visita</t>
   </si>
@@ -1459,6 +1459,9 @@
   </si>
   <si>
     <t>Cita de seguimiento</t>
+  </si>
+  <si>
+    <t>Medic@</t>
   </si>
   <si>
     <t>Infusión</t>
@@ -1522,7 +1525,6 @@
     <font>
       <b/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -1905,7 +1907,7 @@
     <col customWidth="1" min="489" max="490" width="10.56"/>
     <col customWidth="1" min="491" max="491" width="12.44"/>
     <col customWidth="1" min="492" max="492" width="11.56"/>
-    <col customWidth="1" min="493" max="497" width="10.56"/>
+    <col customWidth="1" min="493" max="498" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2499,9 +2501,9 @@
       <c r="RZ1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="SA1" s="7"/>
       <c r="SB1" s="7"/>
       <c r="SC1" s="7"/>
+      <c r="SD1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="8"/>
@@ -3931,17 +3933,20 @@
       <c r="RY2" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="RZ2" s="11" t="s">
+      <c r="RZ2" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="SA2" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="SA2" s="11" t="s">
-        <v>481</v>
       </c>
       <c r="SB2" s="11" t="s">
         <v>482</v>
       </c>
       <c r="SC2" s="11" t="s">
         <v>483</v>
+      </c>
+      <c r="SD2" s="11" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -4441,6 +4446,7 @@
       <c r="SA3" s="20"/>
       <c r="SB3" s="20"/>
       <c r="SC3" s="20"/>
+      <c r="SD3" s="20"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="17"/>
@@ -4939,6 +4945,7 @@
       <c r="SA4" s="20"/>
       <c r="SB4" s="20"/>
       <c r="SC4" s="20"/>
+      <c r="SD4" s="20"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="17"/>
@@ -5437,6 +5444,7 @@
       <c r="SA5" s="20"/>
       <c r="SB5" s="20"/>
       <c r="SC5" s="20"/>
+      <c r="SD5" s="20"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
@@ -5508,6 +5516,7 @@
       <c r="SA6" s="20"/>
       <c r="SB6" s="20"/>
       <c r="SC6" s="20"/>
+      <c r="SD6" s="20"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
@@ -5580,6 +5589,7 @@
       <c r="SA7" s="20"/>
       <c r="SB7" s="20"/>
       <c r="SC7" s="20"/>
+      <c r="SD7" s="20"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
@@ -5650,6 +5660,7 @@
       <c r="SA8" s="20"/>
       <c r="SB8" s="20"/>
       <c r="SC8" s="20"/>
+      <c r="SD8" s="20"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
@@ -5720,6 +5731,7 @@
       <c r="SA9" s="20"/>
       <c r="SB9" s="20"/>
       <c r="SC9" s="20"/>
+      <c r="SD9" s="20"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="17"/>
@@ -5792,6 +5804,7 @@
       <c r="SA10" s="20"/>
       <c r="SB10" s="20"/>
       <c r="SC10" s="20"/>
+      <c r="SD10" s="20"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="24"/>
@@ -5864,6 +5877,7 @@
       <c r="SA11" s="20"/>
       <c r="SB11" s="20"/>
       <c r="SC11" s="20"/>
+      <c r="SD11" s="20"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="24"/>
@@ -5933,6 +5947,7 @@
       <c r="SA12" s="20"/>
       <c r="SB12" s="20"/>
       <c r="SC12" s="20"/>
+      <c r="SD12" s="20"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="24"/>
@@ -6000,6 +6015,7 @@
       <c r="SA13" s="20"/>
       <c r="SB13" s="20"/>
       <c r="SC13" s="20"/>
+      <c r="SD13" s="20"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -6064,6 +6080,7 @@
       <c r="SA14" s="20"/>
       <c r="SB14" s="20"/>
       <c r="SC14" s="20"/>
+      <c r="SD14" s="20"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="20"/>
@@ -6126,6 +6143,7 @@
       <c r="SA15" s="20"/>
       <c r="SB15" s="20"/>
       <c r="SC15" s="20"/>
+      <c r="SD15" s="20"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="20"/>
@@ -6186,6 +6204,7 @@
       <c r="SA16" s="20"/>
       <c r="SB16" s="20"/>
       <c r="SC16" s="20"/>
+      <c r="SD16" s="20"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="20"/>
@@ -6243,6 +6262,7 @@
       <c r="SA17" s="20"/>
       <c r="SB17" s="20"/>
       <c r="SC17" s="20"/>
+      <c r="SD17" s="20"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="20"/>
@@ -6298,6 +6318,7 @@
       <c r="SA18" s="20"/>
       <c r="SB18" s="20"/>
       <c r="SC18" s="20"/>
+      <c r="SD18" s="20"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="20"/>
@@ -6353,6 +6374,7 @@
       <c r="SA19" s="20"/>
       <c r="SB19" s="20"/>
       <c r="SC19" s="20"/>
+      <c r="SD19" s="20"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="20"/>
@@ -6405,6 +6427,7 @@
       <c r="SA20" s="20"/>
       <c r="SB20" s="20"/>
       <c r="SC20" s="20"/>
+      <c r="SD20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="20"/>
